--- a/BackTest/2019-10-18 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-18 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9000000000000021</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-49.99999999999956</v>
+      </c>
       <c r="L12" t="n">
         <v>27.52</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.200000000000003</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-19.99999999999986</v>
+      </c>
       <c r="L13" t="n">
         <v>27.51</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20.00000000000014</v>
+      </c>
       <c r="L14" t="n">
         <v>27.47</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.400000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-11.1111111111112</v>
+      </c>
       <c r="L15" t="n">
         <v>27.45</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.600000000000009</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>9.09090909090915</v>
+      </c>
       <c r="L16" t="n">
         <v>27.46</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.700000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>16.66666666666652</v>
+      </c>
       <c r="L17" t="n">
         <v>27.48</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>7.692307692307776</v>
+      </c>
       <c r="L18" t="n">
         <v>27.48</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>27.49</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.090909090909207</v>
+      </c>
       <c r="L20" t="n">
         <v>27.49</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.900000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>19.99999999999986</v>
+      </c>
       <c r="L21" t="n">
         <v>27.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.100000000000005</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>27.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.090909090909033</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L23" t="n">
         <v>27.49</v>
@@ -1466,7 +1488,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K24" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L24" t="n">
         <v>27.5</v>
@@ -1515,7 +1537,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.263157894736901</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L25" t="n">
         <v>27.51</v>
@@ -1564,7 +1586,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>27.52</v>
@@ -1613,7 +1635,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-8.333333333333297</v>
+        <v>-20</v>
       </c>
       <c r="L27" t="n">
         <v>27.48</v>
@@ -1662,7 +1684,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K28" t="n">
-        <v>3.703703703703753</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L28" t="n">
         <v>27.49</v>
@@ -1711,7 +1733,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>11.11111111111114</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>27.51</v>
@@ -1760,7 +1782,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307672</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>27.53</v>
@@ -1809,7 +1831,7 @@
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.703703703703762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>27.53</v>
@@ -1860,7 +1882,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>11.11111111111114</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L32" t="n">
         <v>27.56</v>
@@ -1911,7 +1933,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>3.99999999999992</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L33" t="n">
         <v>27.58</v>
@@ -1962,7 +1984,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K34" t="n">
-        <v>8.333333333333481</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L34" t="n">
         <v>27.59</v>
@@ -2013,7 +2035,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>8.333333333333481</v>
+        <v>-7.692307692307566</v>
       </c>
       <c r="L35" t="n">
         <v>27.6</v>
@@ -2064,7 +2086,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L36" t="n">
         <v>27.59000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>-4.761904761904681</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>27.62000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>5.26315789473694</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L38" t="n">
         <v>27.62000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>5.26315789473694</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L39" t="n">
         <v>27.61000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>5.26315789473694</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L40" t="n">
         <v>27.60000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>5.26315789473694</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>27.61000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>17.64705882352953</v>
+        <v>-100</v>
       </c>
       <c r="L42" t="n">
         <v>27.61000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>12.50000000000003</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>27.61000000000002</v>
@@ -2472,7 +2494,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K44" t="n">
-        <v>12.50000000000003</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>27.62000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K45" t="n">
-        <v>12.50000000000003</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>27.63000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>3.899999999999995</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>27.64000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.999999999999993</v>
       </c>
       <c r="K47" t="n">
-        <v>27.27272727272756</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>27.64000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>4.099999999999994</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L48" t="n">
         <v>27.63000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K49" t="n">
-        <v>9.090909090909268</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>27.65000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K50" t="n">
-        <v>9.090909090909268</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>27.67000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K51" t="n">
-        <v>33.3333333333336</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>27.69</v>
@@ -2880,7 +2902,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K52" t="n">
-        <v>25.00000000000011</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L52" t="n">
         <v>27.71</v>
@@ -2931,7 +2953,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K53" t="n">
-        <v>-20</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L53" t="n">
         <v>27.69</v>
@@ -2982,7 +3004,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L54" t="n">
         <v>27.68000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.090909090909207</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L55" t="n">
         <v>27.66000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L57" t="n">
         <v>27.65000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L58" t="n">
         <v>27.66000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L59" t="n">
         <v>27.64000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K60" t="n">
-        <v>7.692307692307525</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L60" t="n">
         <v>27.63000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>7.692307692307525</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L61" t="n">
         <v>27.62000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>7.692307692307525</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L62" t="n">
         <v>27.61000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>-7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>27.62000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>-7.692307692307525</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L64" t="n">
         <v>27.62000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>27.63000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.692307692307525</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>27.63000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K68" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>27.63000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K69" t="n">
-        <v>-24.99999999999989</v>
+        <v>-100</v>
       </c>
       <c r="L69" t="n">
         <v>27.63000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L70" t="n">
         <v>27.61000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K71" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L71" t="n">
         <v>27.60000000000002</v>
@@ -3900,7 +3922,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>27.59000000000002</v>
@@ -3951,7 +3973,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>27.59000000000002</v>
@@ -4002,7 +4024,7 @@
         <v>5.5</v>
       </c>
       <c r="K74" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>27.58000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>27.58000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>-14.28571428571443</v>
+        <v>-20</v>
       </c>
       <c r="L78" t="n">
         <v>27.57000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>5.800000000000004</v>
       </c>
       <c r="K79" t="n">
-        <v>-25.00000000000022</v>
+        <v>-20</v>
       </c>
       <c r="L79" t="n">
         <v>27.55000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>5.900000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>-49.99999999999956</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L80" t="n">
         <v>27.53000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>27.53000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>-9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>27.53000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>9.090909090908857</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L83" t="n">
         <v>27.54000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>6.400000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>16.66666666666652</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L84" t="n">
         <v>27.57000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>6.500000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>7.692307692307482</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L85" t="n">
         <v>27.58000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>6.600000000000005</v>
       </c>
       <c r="K86" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L86" t="n">
         <v>27.6</v>
@@ -4665,7 +4687,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>27.59</v>
@@ -4716,7 +4738,7 @@
         <v>7.100000000000005</v>
       </c>
       <c r="K88" t="n">
-        <v>5.263157894736705</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L88" t="n">
         <v>27.61</v>
@@ -4767,7 +4789,7 @@
         <v>7.100000000000005</v>
       </c>
       <c r="K89" t="n">
-        <v>5.263157894736705</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L89" t="n">
         <v>27.64</v>
@@ -4818,7 +4840,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K90" t="n">
-        <v>15.78947368421049</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L90" t="n">
         <v>27.69</v>
@@ -4869,7 +4891,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K91" t="n">
-        <v>11.11111111111102</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L91" t="n">
         <v>27.71</v>
@@ -4920,7 +4942,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K92" t="n">
-        <v>11.11111111111102</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L92" t="n">
         <v>27.73</v>
@@ -4971,7 +4993,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K93" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>27.74</v>
@@ -5022,7 +5044,7 @@
         <v>7.300000000000008</v>
       </c>
       <c r="K94" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>27.73</v>
@@ -5073,7 +5095,7 @@
         <v>7.300000000000008</v>
       </c>
       <c r="K95" t="n">
-        <v>5.882352941176324</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L95" t="n">
         <v>27.73</v>
@@ -5124,7 +5146,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K96" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>27.7</v>
@@ -5175,7 +5197,7 @@
         <v>7.700000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>4.761904761904649</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>27.72</v>
@@ -5226,7 +5248,7 @@
         <v>7.700000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>27.72</v>
@@ -5277,7 +5299,7 @@
         <v>7.900000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>4.761904761904826</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L99" t="n">
         <v>27.7</v>
@@ -5328,7 +5350,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>18.18181818181809</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L100" t="n">
         <v>27.69</v>
@@ -5379,7 +5401,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>5.263157894736723</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L101" t="n">
         <v>27.68</v>
@@ -5430,7 +5452,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>5.263157894736723</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L102" t="n">
         <v>27.66999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.999999999999947</v>
+        <v>-20</v>
       </c>
       <c r="L103" t="n">
         <v>27.63999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>8.500000000000004</v>
       </c>
       <c r="K104" t="n">
-        <v>-4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>27.63999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>8.500000000000004</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L105" t="n">
         <v>27.63999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>8.600000000000005</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L106" t="n">
         <v>27.66999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K107" t="n">
-        <v>22.22222222222218</v>
+        <v>20</v>
       </c>
       <c r="L107" t="n">
         <v>27.68999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L108" t="n">
         <v>27.68999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>9.999999999999982</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>27.72999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>5.263157894736744</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>27.74999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>5.263157894736744</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
         <v>27.76999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L112" t="n">
         <v>27.77999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>9.299999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>4.761904761904681</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L113" t="n">
         <v>27.81999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>9.399999999999995</v>
       </c>
       <c r="K114" t="n">
-        <v>4.761904761904859</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L114" t="n">
         <v>27.82999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K115" t="n">
-        <v>9.09090909090912</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L115" t="n">
         <v>27.84999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K116" t="n">
-        <v>20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>27.85999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>9.599999999999991</v>
       </c>
       <c r="K117" t="n">
-        <v>5.263157894736961</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L117" t="n">
         <v>27.84999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>9.699999999999989</v>
       </c>
       <c r="K118" t="n">
-        <v>10.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>27.86999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>26.31578947368443</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L119" t="n">
         <v>27.87999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>17.64705882352961</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L120" t="n">
         <v>27.88999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>17.64705882352961</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L121" t="n">
         <v>27.9</v>
@@ -6450,7 +6472,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>17.64705882352961</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L122" t="n">
         <v>27.91999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>9.79999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333365</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L123" t="n">
         <v>27.93</v>
@@ -6552,7 +6574,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K124" t="n">
-        <v>28.57142857142897</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L124" t="n">
         <v>27.96</v>
@@ -6603,7 +6625,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K125" t="n">
-        <v>28.57142857142897</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L125" t="n">
         <v>27.98</v>
@@ -6654,7 +6676,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K126" t="n">
-        <v>23.07692307692337</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>28.00000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K127" t="n">
-        <v>16.66666666666706</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>28.03000000000001</v>
@@ -6756,7 +6778,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>7.69230769230786</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L128" t="n">
         <v>28.02000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>-9.090909090908973</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L129" t="n">
         <v>28.00000000000001</v>
@@ -6858,7 +6880,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>28.00000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>28.00000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-12.50000000000003</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L132" t="n">
         <v>27.96000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>5.26315789473694</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L133" t="n">
         <v>27.96000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>15.78947368421061</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>27.96000000000002</v>
@@ -7113,7 +7135,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>15.78947368421061</v>
+        <v>6.66666666666654</v>
       </c>
       <c r="L135" t="n">
         <v>27.97000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>15.78947368421061</v>
+        <v>6.66666666666654</v>
       </c>
       <c r="L136" t="n">
         <v>27.98000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>22.22222222222218</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>27.99</v>
@@ -7266,7 +7288,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>22.22222222222233</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L138" t="n">
         <v>28.04</v>
@@ -7317,7 +7339,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>11.11111111111107</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L139" t="n">
         <v>28.08</v>
@@ -7368,7 +7390,7 @@
         <v>11.69999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>15.78947368421055</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L140" t="n">
         <v>28.11</v>
@@ -7419,7 +7441,7 @@
         <v>11.69999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>15.78947368421055</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L141" t="n">
         <v>28.14</v>
@@ -7470,7 +7492,7 @@
         <v>11.79999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>9.999999999999947</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L142" t="n">
         <v>28.2</v>
@@ -7521,7 +7543,7 @@
         <v>11.79999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>9.999999999999947</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L143" t="n">
         <v>28.22</v>
@@ -7572,7 +7594,7 @@
         <v>12.2</v>
       </c>
       <c r="K144" t="n">
-        <v>21.73913043478257</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L144" t="n">
         <v>28.27</v>
@@ -7623,7 +7645,7 @@
         <v>12.5</v>
       </c>
       <c r="K145" t="n">
-        <v>7.69230769230765</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L145" t="n">
         <v>28.28</v>
@@ -7674,7 +7696,7 @@
         <v>12.5</v>
       </c>
       <c r="K146" t="n">
-        <v>7.69230769230765</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L146" t="n">
         <v>28.29</v>
@@ -7725,7 +7747,7 @@
         <v>12.7</v>
       </c>
       <c r="K147" t="n">
-        <v>14.28571428571421</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L147" t="n">
         <v>28.32</v>
@@ -7776,7 +7798,7 @@
         <v>12.9</v>
       </c>
       <c r="K148" t="n">
-        <v>18.5185185185185</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L148" t="n">
         <v>28.32</v>
@@ -7827,7 +7849,7 @@
         <v>13.2</v>
       </c>
       <c r="K149" t="n">
-        <v>26.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L149" t="n">
         <v>28.36000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>13.2</v>
       </c>
       <c r="K150" t="n">
-        <v>21.42857142857145</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>28.39000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>13.2</v>
       </c>
       <c r="K151" t="n">
-        <v>21.42857142857145</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L151" t="n">
         <v>28.42000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>13.2</v>
       </c>
       <c r="K152" t="n">
-        <v>41.66666666666657</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L152" t="n">
         <v>28.46000000000002</v>
@@ -8031,7 +8053,7 @@
         <v>13.4</v>
       </c>
       <c r="K153" t="n">
-        <v>18.18181818181803</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L153" t="n">
         <v>28.48000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>13.4</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571409</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L154" t="n">
         <v>28.46000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>13.5</v>
       </c>
       <c r="K155" t="n">
-        <v>4.76190476190481</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>28.46000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>13.9</v>
       </c>
       <c r="K156" t="n">
-        <v>-11.99999999999998</v>
+        <v>-50</v>
       </c>
       <c r="L156" t="n">
         <v>28.42000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>14.4</v>
       </c>
       <c r="K157" t="n">
-        <v>6.666666666666619</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L157" t="n">
         <v>28.41</v>
@@ -8286,7 +8308,7 @@
         <v>14.5</v>
       </c>
       <c r="K158" t="n">
-        <v>6.666666666666619</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L158" t="n">
         <v>28.43</v>
@@ -8337,7 +8359,7 @@
         <v>14.6</v>
       </c>
       <c r="K159" t="n">
-        <v>13.33333333333336</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>28.43</v>
@@ -8388,7 +8410,7 @@
         <v>14.7</v>
       </c>
       <c r="K160" t="n">
-        <v>13.33333333333326</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L160" t="n">
         <v>28.44</v>
@@ -8439,7 +8461,7 @@
         <v>14.8</v>
       </c>
       <c r="K161" t="n">
-        <v>16.12903225806447</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L161" t="n">
         <v>28.46</v>
@@ -8490,7 +8512,7 @@
         <v>14.9</v>
       </c>
       <c r="K162" t="n">
-        <v>16.12903225806447</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
         <v>28.46999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>15.1</v>
       </c>
       <c r="K163" t="n">
-        <v>21.21212121212114</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L163" t="n">
         <v>28.51999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>15.1</v>
       </c>
       <c r="K164" t="n">
-        <v>10.34482758620678</v>
+        <v>37.49999999999975</v>
       </c>
       <c r="L164" t="n">
         <v>28.56999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>15.2</v>
       </c>
       <c r="K165" t="n">
-        <v>18.5185185185185</v>
+        <v>69.23076923076937</v>
       </c>
       <c r="L165" t="n">
         <v>28.61999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>15.2</v>
       </c>
       <c r="K166" t="n">
-        <v>18.5185185185185</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L166" t="n">
         <v>28.71</v>
@@ -8745,7 +8767,7 @@
         <v>15.2</v>
       </c>
       <c r="K167" t="n">
-        <v>12.00000000000001</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L167" t="n">
         <v>28.75</v>
@@ -8796,7 +8818,7 @@
         <v>15.2</v>
       </c>
       <c r="K168" t="n">
-        <v>21.73913043478257</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>28.78</v>
@@ -8847,7 +8869,7 @@
         <v>15.3</v>
       </c>
       <c r="K169" t="n">
-        <v>14.28571428571414</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>28.81</v>
@@ -8898,7 +8920,7 @@
         <v>15.3</v>
       </c>
       <c r="K170" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L170" t="n">
         <v>28.82999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>15.5</v>
       </c>
       <c r="K171" t="n">
-        <v>21.73913043478257</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L171" t="n">
         <v>28.86</v>
@@ -9000,7 +9022,7 @@
         <v>15.5</v>
       </c>
       <c r="K172" t="n">
-        <v>21.73913043478257</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L172" t="n">
         <v>28.9</v>
@@ -9051,7 +9073,7 @@
         <v>15.6</v>
       </c>
       <c r="K173" t="n">
-        <v>36.36363636363641</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L173" t="n">
         <v>28.93</v>
@@ -9102,7 +9124,7 @@
         <v>15.6</v>
       </c>
       <c r="K174" t="n">
-        <v>36.36363636363641</v>
+        <v>100</v>
       </c>
       <c r="L174" t="n">
         <v>28.96</v>
@@ -9153,7 +9175,7 @@
         <v>15.7</v>
       </c>
       <c r="K175" t="n">
-        <v>45.4545454545454</v>
+        <v>100</v>
       </c>
       <c r="L175" t="n">
         <v>29.01</v>
@@ -9204,7 +9226,7 @@
         <v>15.7</v>
       </c>
       <c r="K176" t="n">
-        <v>77.77777777777787</v>
+        <v>100</v>
       </c>
       <c r="L176" t="n">
         <v>29.06</v>
@@ -9255,7 +9277,7 @@
         <v>15.7</v>
       </c>
       <c r="K177" t="n">
-        <v>69.23076923076937</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>29.11</v>
@@ -9306,7 +9328,7 @@
         <v>15.8</v>
       </c>
       <c r="K178" t="n">
-        <v>69.23076923076927</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>29.17</v>
@@ -9357,7 +9379,7 @@
         <v>16.3</v>
       </c>
       <c r="K179" t="n">
-        <v>76.47058823529414</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>29.27</v>
@@ -9408,7 +9430,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>47.36842105263182</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L180" t="n">
         <v>29.34</v>
@@ -9459,7 +9481,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>44.44444444444464</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L181" t="n">
         <v>29.39</v>
@@ -9510,7 +9532,7 @@
         <v>16.7</v>
       </c>
       <c r="K182" t="n">
-        <v>44.44444444444464</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L182" t="n">
         <v>29.43</v>
@@ -9561,7 +9583,7 @@
         <v>17</v>
       </c>
       <c r="K183" t="n">
-        <v>47.36842105263182</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L183" t="n">
         <v>29.49</v>
@@ -9612,7 +9634,7 @@
         <v>17.2</v>
       </c>
       <c r="K184" t="n">
-        <v>33.33333333333356</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L184" t="n">
         <v>29.53000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>17.4</v>
       </c>
       <c r="K185" t="n">
-        <v>27.27272727272718</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L185" t="n">
         <v>29.54</v>
@@ -9714,7 +9736,7 @@
         <v>17.6</v>
       </c>
       <c r="K186" t="n">
-        <v>33.33333333333333</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L186" t="n">
         <v>29.57</v>
@@ -9765,7 +9787,7 @@
         <v>17.7</v>
       </c>
       <c r="K187" t="n">
-        <v>27.99999999999993</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L187" t="n">
         <v>29.59</v>
@@ -9816,7 +9838,7 @@
         <v>17.7</v>
       </c>
       <c r="K188" t="n">
-        <v>27.99999999999993</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L188" t="n">
         <v>29.6</v>
@@ -9867,7 +9889,7 @@
         <v>17.7</v>
       </c>
       <c r="K189" t="n">
-        <v>25</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L189" t="n">
         <v>29.56000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>17.9</v>
       </c>
       <c r="K190" t="n">
-        <v>15.38461538461544</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L190" t="n">
         <v>29.53000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>17.9</v>
       </c>
       <c r="K191" t="n">
-        <v>8.333333333333297</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L191" t="n">
         <v>29.50000000000001</v>
@@ -10020,7 +10042,7 @@
         <v>17.9</v>
       </c>
       <c r="K192" t="n">
-        <v>8.333333333333297</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L192" t="n">
         <v>29.48000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>18</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L193" t="n">
         <v>29.42000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>18.1</v>
       </c>
       <c r="K194" t="n">
-        <v>4.000000000000045</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L194" t="n">
         <v>29.39</v>
@@ -10173,7 +10195,7 @@
         <v>18.1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L195" t="n">
         <v>29.38000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571432</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L196" t="n">
         <v>29.31</v>
@@ -10275,7 +10297,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>-10.34482758620689</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L197" t="n">
         <v>29.26</v>
@@ -10326,7 +10348,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-14.28571428571418</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L198" t="n">
         <v>29.21</v>
@@ -10377,7 +10399,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-39.13043478260844</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L199" t="n">
         <v>29.16</v>
@@ -10428,7 +10450,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-23.80952380952363</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L200" t="n">
         <v>29.14</v>
@@ -10479,7 +10501,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-23.80952380952363</v>
+        <v>-24.99999999999967</v>
       </c>
       <c r="L201" t="n">
         <v>29.12</v>
@@ -10530,7 +10552,7 @@
         <v>18.80000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>-14.28571428571424</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>29.11</v>
@@ -10581,7 +10603,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>-36.84210526315768</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L203" t="n">
         <v>29.1</v>
@@ -10632,7 +10654,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>-42.85714285714271</v>
+        <v>-50</v>
       </c>
       <c r="L204" t="n">
         <v>29.04</v>
@@ -10683,7 +10705,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-13.04347826086938</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L205" t="n">
         <v>29.02</v>
@@ -10734,7 +10756,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-30.43478260869563</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L206" t="n">
         <v>29.02</v>
@@ -10785,7 +10807,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>-27.27272727272722</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L207" t="n">
         <v>29.01</v>
@@ -10836,7 +10858,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-27.27272727272722</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L208" t="n">
         <v>29</v>
@@ -10887,7 +10909,7 @@
         <v>20.00000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-21.7391304347825</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L209" t="n">
         <v>29</v>
@@ -10938,7 +10960,7 @@
         <v>20.00000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-14.28571428571424</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L210" t="n">
         <v>28.99</v>
@@ -10989,7 +11011,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>-9.090909090909003</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L211" t="n">
         <v>28.99</v>
@@ -11040,7 +11062,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>-9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>28.98</v>
@@ -11091,7 +11113,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.761904761904633</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L213" t="n">
         <v>28.98</v>
@@ -11142,7 +11164,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K214" t="n">
-        <v>-9.999999999999911</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>29.02</v>
@@ -11193,7 +11215,7 @@
         <v>20.20000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>-4.76190476190481</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>29.03</v>
@@ -11295,7 +11317,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>4.76190476190481</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L217" t="n">
         <v>29.05</v>
@@ -11346,7 +11368,7 @@
         <v>20.80000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>9.090909090909033</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L218" t="n">
         <v>29.08000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>20.80000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>9.090909090909033</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L219" t="n">
         <v>29.1</v>
@@ -11448,7 +11470,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>9.090909090909033</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L220" t="n">
         <v>29.13000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>9.090909090909033</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L221" t="n">
         <v>29.15000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>4.76190476190481</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L222" t="n">
         <v>29.17000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>4.761904761904633</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L223" t="n">
         <v>29.18</v>
@@ -11652,7 +11674,7 @@
         <v>21.20000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>15.78947368421049</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L224" t="n">
         <v>29.17</v>
@@ -11703,7 +11725,7 @@
         <v>21.50000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>-22.22222222222224</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L225" t="n">
         <v>29.12</v>
@@ -11754,7 +11776,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>5.263157894736901</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L226" t="n">
         <v>29.13</v>
@@ -11805,7 +11827,7 @@
         <v>22.00000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>-4.761904761904649</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L227" t="n">
         <v>29.1</v>
@@ -11856,7 +11878,7 @@
         <v>22.20000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>4.347826086956576</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L228" t="n">
         <v>29.08</v>
@@ -11907,7 +11929,7 @@
         <v>22.50000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>-12.00000000000001</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L229" t="n">
         <v>29.03</v>
@@ -11958,7 +11980,7 @@
         <v>22.70000000000002</v>
       </c>
       <c r="K230" t="n">
-        <v>-3.703703703703753</v>
+        <v>-22.22222222222233</v>
       </c>
       <c r="L230" t="n">
         <v>28.99</v>
@@ -12009,7 +12031,7 @@
         <v>22.90000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>-9.999999999999947</v>
       </c>
       <c r="L231" t="n">
         <v>28.97</v>
@@ -12060,7 +12082,7 @@
         <v>22.90000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-5.263157894736723</v>
       </c>
       <c r="L232" t="n">
         <v>28.95</v>
@@ -12111,7 +12133,7 @@
         <v>23.00000000000002</v>
       </c>
       <c r="K233" t="n">
-        <v>-3.448275862069008</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>28.93</v>
@@ -12162,7 +12184,7 @@
         <v>23.10000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>-6.666666666666746</v>
+        <v>12.49999999999992</v>
       </c>
       <c r="L234" t="n">
         <v>28.92</v>
@@ -12213,7 +12235,7 @@
         <v>23.20000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>-13.33333333333326</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L235" t="n">
         <v>28.93</v>
@@ -12264,7 +12286,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K236" t="n">
-        <v>3.448275862069008</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L236" t="n">
         <v>28.93</v>
@@ -12315,7 +12337,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K237" t="n">
-        <v>-13.33333333333339</v>
+        <v>-20</v>
       </c>
       <c r="L237" t="n">
         <v>28.92</v>
@@ -12366,7 +12388,7 @@
         <v>23.90000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>-9.677419354838717</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L238" t="n">
         <v>28.91</v>
@@ -12417,7 +12439,7 @@
         <v>24.10000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>-15.15151515151513</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L239" t="n">
         <v>28.91</v>
@@ -12468,7 +12490,7 @@
         <v>24.20000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>-15.15151515151513</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L240" t="n">
         <v>28.9</v>
@@ -12519,7 +12541,7 @@
         <v>24.30000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>-17.64705882352942</v>
+        <v>-28.57142857142868</v>
       </c>
       <c r="L241" t="n">
         <v>28.86</v>
@@ -12570,7 +12592,7 @@
         <v>24.40000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>-19.99999999999996</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L242" t="n">
         <v>28.81</v>
@@ -12621,7 +12643,7 @@
         <v>24.50000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-19.99999999999996</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L243" t="n">
         <v>28.76</v>
@@ -12672,7 +12694,7 @@
         <v>24.60000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-11.76470588235288</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L244" t="n">
         <v>28.73</v>
@@ -12723,7 +12745,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>-6.249999999999965</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L245" t="n">
         <v>28.7</v>
@@ -12774,7 +12796,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>-17.24137931034479</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L246" t="n">
         <v>28.65</v>
@@ -12825,7 +12847,7 @@
         <v>24.80000000000003</v>
       </c>
       <c r="K247" t="n">
-        <v>-14.28571428571432</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L247" t="n">
         <v>28.62</v>
@@ -12876,7 +12898,7 @@
         <v>25.00000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-28.57142857142851</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L248" t="n">
         <v>28.55</v>
@@ -12927,7 +12949,7 @@
         <v>25.30000000000003</v>
       </c>
       <c r="K249" t="n">
-        <v>-7.142857142857098</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L249" t="n">
         <v>28.53</v>
@@ -12978,7 +13000,7 @@
         <v>25.40000000000003</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.11111111111097</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L250" t="n">
         <v>28.51</v>
@@ -13029,7 +13051,7 @@
         <v>25.70000000000003</v>
       </c>
       <c r="K251" t="n">
-        <v>-28.57142857142851</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L251" t="n">
         <v>28.47000000000001</v>
@@ -13080,7 +13102,7 @@
         <v>25.80000000000003</v>
       </c>
       <c r="K252" t="n">
-        <v>-24.13793103448281</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L252" t="n">
         <v>28.45</v>
@@ -13131,7 +13153,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K253" t="n">
-        <v>-17.24137931034479</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L253" t="n">
         <v>28.45</v>
@@ -13182,7 +13204,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K254" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>28.44</v>
@@ -13233,7 +13255,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K255" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>28.44</v>
@@ -13284,7 +13306,7 @@
         <v>26.00000000000003</v>
       </c>
       <c r="K256" t="n">
-        <v>-23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>28.43</v>
@@ -13335,7 +13357,7 @@
         <v>26.10000000000003</v>
       </c>
       <c r="K257" t="n">
-        <v>-8.333333333333272</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L257" t="n">
         <v>28.44</v>
@@ -13386,7 +13408,7 @@
         <v>26.20000000000003</v>
       </c>
       <c r="K258" t="n">
-        <v>-21.7391304347825</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L258" t="n">
         <v>28.46</v>
@@ -13437,7 +13459,7 @@
         <v>26.20000000000003</v>
       </c>
       <c r="K259" t="n">
-        <v>-14.28571428571424</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L259" t="n">
         <v>28.45</v>
@@ -13488,7 +13510,7 @@
         <v>26.20000000000003</v>
       </c>
       <c r="K260" t="n">
-        <v>-20</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L260" t="n">
         <v>28.42999999999999</v>
@@ -13539,7 +13561,7 @@
         <v>26.20000000000003</v>
       </c>
       <c r="K261" t="n">
-        <v>-15.78947368421049</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>28.43999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>26.40000000000003</v>
       </c>
       <c r="K262" t="n">
-        <v>-20</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L262" t="n">
         <v>28.41999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>26.60000000000003</v>
       </c>
       <c r="K263" t="n">
-        <v>-4.76190476190481</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L263" t="n">
         <v>28.40999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>26.70000000000003</v>
       </c>
       <c r="K264" t="n">
-        <v>-14.28571428571428</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L264" t="n">
         <v>28.38999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>26.80000000000003</v>
       </c>
       <c r="K265" t="n">
-        <v>-4.761904761904826</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>28.37999999999998</v>
@@ -13794,7 +13816,7 @@
         <v>26.90000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>-9.090909090909062</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L266" t="n">
         <v>28.36999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>27.10000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>4.761904761904842</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L268" t="n">
         <v>28.34999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>27.20000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-5.26315789473694</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>28.34999999999999</v>
@@ -13998,7 +14020,7 @@
         <v>27.20000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111133</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>28.34999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>27.20000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>6.666666666666572</v>
+        <v>25.00000000000033</v>
       </c>
       <c r="L271" t="n">
         <v>28.34999999999999</v>
@@ -14151,7 +14173,7 @@
         <v>27.20000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>-7.69230769230786</v>
+        <v>20</v>
       </c>
       <c r="L273" t="n">
         <v>28.36999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>27.30000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L274" t="n">
         <v>28.38999999999999</v>
@@ -14253,7 +14275,7 @@
         <v>27.50000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>12.50000000000003</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L275" t="n">
         <v>28.41999999999999</v>
@@ -14304,7 +14326,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>12.50000000000028</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L276" t="n">
         <v>28.44999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>6.666666666666825</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L277" t="n">
         <v>28.46999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>14.28571428571465</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L278" t="n">
         <v>28.49999999999999</v>
@@ -14457,7 +14479,7 @@
         <v>27.60000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>14.28571428571465</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L279" t="n">
         <v>28.52</v>
@@ -14508,7 +14530,7 @@
         <v>27.70000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>6.666666666666825</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L280" t="n">
         <v>28.53</v>
@@ -14559,7 +14581,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>12.50000000000028</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L281" t="n">
         <v>28.55</v>
@@ -14610,7 +14632,7 @@
         <v>27.90000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>20.00000000000019</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L282" t="n">
         <v>28.56000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>28.00000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>14.28571428571458</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L283" t="n">
         <v>28.58000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>28.00000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>23.07692307692324</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L284" t="n">
         <v>28.59000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>23.07692307692324</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L285" t="n">
         <v>28.59000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L286" t="n">
         <v>28.58000000000001</v>
@@ -14865,7 +14887,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>7.692307692307819</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L287" t="n">
         <v>28.57000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>16.66666666666662</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L288" t="n">
         <v>28.56000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>28.30000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L289" t="n">
         <v>28.55</v>
@@ -15018,7 +15040,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>-7.692307692307525</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L290" t="n">
         <v>28.53000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-7.692307692307525</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L291" t="n">
         <v>28.50000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>28.60000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>-14.28571428571421</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="L292" t="n">
         <v>28.47000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>28.80000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L293" t="n">
         <v>28.45</v>
@@ -15222,7 +15244,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L294" t="n">
         <v>28.44</v>
@@ -15324,7 +15346,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-25.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>28.37</v>
@@ -15375,7 +15397,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-25.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>28.34</v>
@@ -15426,7 +15448,7 @@
         <v>29.30000000000002</v>
       </c>
       <c r="K298" t="n">
-        <v>-17.64705882352939</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L298" t="n">
         <v>28.32</v>
@@ -15477,7 +15499,7 @@
         <v>29.40000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>-22.22222222222224</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L299" t="n">
         <v>28.29</v>
@@ -15528,7 +15550,7 @@
         <v>29.50000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>-22.22222222222209</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L300" t="n">
         <v>28.27</v>
@@ -15579,7 +15601,7 @@
         <v>29.60000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>-22.22222222222233</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>28.26</v>
@@ -15630,7 +15652,7 @@
         <v>29.80000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>-26.31578947368423</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L302" t="n">
         <v>28.24</v>
@@ -15681,7 +15703,7 @@
         <v>29.80000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>-33.33333333333346</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L303" t="n">
         <v>28.2</v>
@@ -15732,7 +15754,7 @@
         <v>29.90000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-36.84210526315807</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L304" t="n">
         <v>28.14</v>
@@ -15783,7 +15805,7 @@
         <v>30.10000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>-50</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L305" t="n">
         <v>28.07999999999999</v>
@@ -15834,7 +15856,7 @@
         <v>30.30000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>-50</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L306" t="n">
         <v>28.01</v>
@@ -15885,7 +15907,7 @@
         <v>30.30000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>-50</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L307" t="n">
         <v>27.94</v>
@@ -15936,7 +15958,7 @@
         <v>30.30000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>-50</v>
+        <v>-77.77777777777813</v>
       </c>
       <c r="L308" t="n">
         <v>27.86</v>
@@ -15987,7 +16009,7 @@
         <v>30.50000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>-36.36363636363641</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L309" t="n">
         <v>27.81</v>
@@ -16038,7 +16060,7 @@
         <v>30.70000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>-36.36363636363641</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L310" t="n">
         <v>27.74999999999999</v>
@@ -16089,7 +16111,7 @@
         <v>30.90000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>-41.66666666666669</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L311" t="n">
         <v>27.66</v>
@@ -16140,7 +16162,7 @@
         <v>31.10000000000002</v>
       </c>
       <c r="K312" t="n">
-        <v>-28.00000000000001</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L312" t="n">
         <v>27.61</v>
@@ -16191,7 +16213,7 @@
         <v>31.20000000000002</v>
       </c>
       <c r="K313" t="n">
-        <v>-33.33333333333324</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L313" t="n">
         <v>27.57</v>
@@ -16242,7 +16264,7 @@
         <v>31.20000000000002</v>
       </c>
       <c r="K314" t="n">
-        <v>-39.13043478260868</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L314" t="n">
         <v>27.54</v>
@@ -16293,7 +16315,7 @@
         <v>31.20000000000002</v>
       </c>
       <c r="K315" t="n">
-        <v>-33.33333333333333</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L315" t="n">
         <v>27.53000000000001</v>
@@ -16344,7 +16366,7 @@
         <v>31.40000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>-36.36363636363641</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L316" t="n">
         <v>27.52</v>
@@ -16395,7 +16417,7 @@
         <v>31.60000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>-24.99999999999989</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L317" t="n">
         <v>27.53000000000001</v>
@@ -16446,7 +16468,7 @@
         <v>31.90000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>-38.46153846153844</v>
+        <v>-28.57142857142835</v>
       </c>
       <c r="L318" t="n">
         <v>27.51000000000001</v>
@@ -16497,7 +16519,7 @@
         <v>31.90000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>-35.99999999999994</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L319" t="n">
         <v>27.47000000000001</v>
@@ -16548,7 +16570,7 @@
         <v>31.90000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>27.45000000000001</v>
@@ -16599,7 +16621,7 @@
         <v>32.00000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>-41.66666666666651</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L321" t="n">
         <v>27.44000000000001</v>
@@ -16650,7 +16672,7 @@
         <v>32.30000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>-19.99999999999994</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L322" t="n">
         <v>27.44000000000001</v>
@@ -16701,7 +16723,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K323" t="n">
-        <v>-28.57142857142855</v>
+        <v>-28.57142857142861</v>
       </c>
       <c r="L323" t="n">
         <v>27.40000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K324" t="n">
-        <v>-25.92592592592587</v>
+        <v>-28.57142857142861</v>
       </c>
       <c r="L324" t="n">
         <v>27.36</v>
@@ -16803,7 +16825,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K325" t="n">
-        <v>-19.99999999999997</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L325" t="n">
         <v>27.32</v>
@@ -16854,7 +16876,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K326" t="n">
-        <v>-13.04347826086957</v>
+        <v>-40.00000000000021</v>
       </c>
       <c r="L326" t="n">
         <v>27.3</v>
@@ -16905,7 +16927,7 @@
         <v>32.60000000000002</v>
       </c>
       <c r="K327" t="n">
-        <v>-13.04347826086957</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L327" t="n">
         <v>27.26</v>
@@ -16956,7 +16978,7 @@
         <v>32.70000000000002</v>
       </c>
       <c r="K328" t="n">
-        <v>-8.333333333333284</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>27.26</v>
@@ -17007,7 +17029,7 @@
         <v>32.80000000000003</v>
       </c>
       <c r="K329" t="n">
-        <v>-21.73913043478253</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L329" t="n">
         <v>27.24999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>32.90000000000003</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.090909090909017</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L330" t="n">
         <v>27.24999999999999</v>
@@ -17109,7 +17131,7 @@
         <v>32.90000000000003</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L331" t="n">
         <v>27.26</v>
@@ -17160,7 +17182,7 @@
         <v>33.00000000000003</v>
       </c>
       <c r="K332" t="n">
-        <v>-15.78947368421046</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>27.23</v>
@@ -17211,7 +17233,7 @@
         <v>33.10000000000003</v>
       </c>
       <c r="K333" t="n">
-        <v>-15.78947368421046</v>
+        <v>20</v>
       </c>
       <c r="L333" t="n">
         <v>27.24</v>
@@ -17262,7 +17284,7 @@
         <v>33.10000000000003</v>
       </c>
       <c r="K334" t="n">
-        <v>-15.78947368421046</v>
+        <v>20</v>
       </c>
       <c r="L334" t="n">
         <v>27.25</v>
@@ -17313,7 +17335,7 @@
         <v>33.10000000000003</v>
       </c>
       <c r="K335" t="n">
-        <v>-15.78947368421046</v>
+        <v>20</v>
       </c>
       <c r="L335" t="n">
         <v>27.26</v>
@@ -17364,7 +17386,7 @@
         <v>33.40000000000003</v>
       </c>
       <c r="K336" t="n">
-        <v>10.00000000000007</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L336" t="n">
         <v>27.3</v>
@@ -17415,7 +17437,7 @@
         <v>33.40000000000003</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L337" t="n">
         <v>27.34000000000001</v>
@@ -17466,7 +17488,7 @@
         <v>33.40000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>19.9999999999999</v>
+        <v>66.66666666666607</v>
       </c>
       <c r="L338" t="n">
         <v>27.37000000000001</v>
@@ -17517,7 +17539,7 @@
         <v>33.60000000000004</v>
       </c>
       <c r="K339" t="n">
-        <v>5.882352941176299</v>
+        <v>14.28571428571378</v>
       </c>
       <c r="L339" t="n">
         <v>27.39000000000001</v>
@@ -17568,7 +17590,7 @@
         <v>33.70000000000004</v>
       </c>
       <c r="K340" t="n">
-        <v>11.11111111111098</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L340" t="n">
         <v>27.41000000000001</v>
@@ -17619,7 +17641,7 @@
         <v>34.10000000000004</v>
       </c>
       <c r="K341" t="n">
-        <v>33.33333333333317</v>
+        <v>63.63636363636308</v>
       </c>
       <c r="L341" t="n">
         <v>27.47000000000001</v>
@@ -17670,7 +17692,7 @@
         <v>34.20000000000003</v>
       </c>
       <c r="K342" t="n">
-        <v>15.78947368421052</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L342" t="n">
         <v>27.53000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K343" t="n">
-        <v>41.17647058823518</v>
+        <v>50</v>
       </c>
       <c r="L343" t="n">
         <v>27.59</v>
@@ -17772,7 +17794,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K344" t="n">
-        <v>41.17647058823518</v>
+        <v>50</v>
       </c>
       <c r="L344" t="n">
         <v>27.65</v>
@@ -17823,7 +17845,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K345" t="n">
-        <v>41.17647058823518</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>27.71</v>
@@ -17874,7 +17896,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K346" t="n">
-        <v>41.17647058823518</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>27.73999999999999</v>
@@ -17925,7 +17947,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K347" t="n">
-        <v>41.17647058823518</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>27.76999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K348" t="n">
-        <v>37.49999999999984</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L348" t="n">
         <v>27.79999999999998</v>
@@ -18027,7 +18049,7 @@
         <v>34.50000000000003</v>
       </c>
       <c r="K349" t="n">
-        <v>29.41176470588231</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L349" t="n">
         <v>27.82999999999998</v>
@@ -18078,7 +18100,7 @@
         <v>34.50000000000003</v>
       </c>
       <c r="K350" t="n">
-        <v>24.99999999999989</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L350" t="n">
         <v>27.84999999999998</v>
@@ -18129,7 +18151,7 @@
         <v>34.70000000000003</v>
       </c>
       <c r="K351" t="n">
-        <v>33.33333333333314</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L351" t="n">
         <v>27.84999999999998</v>
@@ -18180,7 +18202,7 @@
         <v>34.80000000000003</v>
       </c>
       <c r="K352" t="n">
-        <v>33.33333333333346</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L352" t="n">
         <v>27.84999999999998</v>
@@ -18231,7 +18253,7 @@
         <v>35.00000000000003</v>
       </c>
       <c r="K353" t="n">
-        <v>15.78947368421058</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L353" t="n">
         <v>27.81999999999999</v>
@@ -18282,7 +18304,7 @@
         <v>35.20000000000003</v>
       </c>
       <c r="K354" t="n">
-        <v>4.761904761904657</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L354" t="n">
         <v>27.76999999999999</v>
@@ -18333,7 +18355,7 @@
         <v>35.20000000000003</v>
       </c>
       <c r="K355" t="n">
-        <v>4.761904761904657</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L355" t="n">
         <v>27.71999999999999</v>
@@ -18384,7 +18406,7 @@
         <v>35.30000000000003</v>
       </c>
       <c r="K356" t="n">
-        <v>-15.78947368421063</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L356" t="n">
         <v>27.65999999999999</v>
@@ -18435,7 +18457,7 @@
         <v>35.30000000000003</v>
       </c>
       <c r="K357" t="n">
-        <v>-15.78947368421063</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L357" t="n">
         <v>27.59999999999999</v>
@@ -18486,7 +18508,7 @@
         <v>35.30000000000003</v>
       </c>
       <c r="K358" t="n">
-        <v>-15.78947368421063</v>
+        <v>-50</v>
       </c>
       <c r="L358" t="n">
         <v>27.54</v>
@@ -18537,7 +18559,7 @@
         <v>35.50000000000003</v>
       </c>
       <c r="K359" t="n">
-        <v>5.26315789473694</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L359" t="n">
         <v>27.52</v>
@@ -18588,7 +18610,7 @@
         <v>35.70000000000003</v>
       </c>
       <c r="K360" t="n">
-        <v>-10</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L360" t="n">
         <v>27.48</v>
@@ -18639,7 +18661,7 @@
         <v>35.80000000000003</v>
       </c>
       <c r="K361" t="n">
-        <v>-29.41176470588255</v>
+        <v>-40.00000000000021</v>
       </c>
       <c r="L361" t="n">
         <v>27.43</v>
@@ -18690,7 +18712,7 @@
         <v>35.90000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>-29.41176470588255</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L362" t="n">
         <v>27.38</v>
@@ -18741,7 +18763,7 @@
         <v>36.00000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>-29.41176470588255</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>27.36</v>
@@ -18792,7 +18814,7 @@
         <v>36.20000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>-36.84210526315802</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L364" t="n">
         <v>27.34</v>
@@ -18843,7 +18865,7 @@
         <v>36.30000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>27.33</v>
@@ -18894,7 +18916,7 @@
         <v>36.50000000000001</v>
       </c>
       <c r="K366" t="n">
-        <v>-36.36363636363642</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L366" t="n">
         <v>27.31</v>
@@ -18945,7 +18967,7 @@
         <v>36.60000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>-30.43478260869585</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L367" t="n">
         <v>27.3</v>
@@ -18996,7 +19018,7 @@
         <v>36.60000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>-30.43478260869585</v>
+        <v>-27.27272727272783</v>
       </c>
       <c r="L368" t="n">
         <v>27.29</v>
@@ -19047,7 +19069,7 @@
         <v>36.60000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>-23.80952380952404</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L369" t="n">
         <v>27.26</v>
@@ -19098,7 +19120,7 @@
         <v>36.70000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>-18.18181818181827</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L370" t="n">
         <v>27.26</v>

--- a/BackTest/2019-10-18 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-18 BackTest LOOM.xlsx
@@ -766,17 +766,13 @@
         <v>27.88833333333336</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -805,22 +801,14 @@
         <v>27.87833333333336</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -848,22 +836,14 @@
         <v>27.87333333333336</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -891,17 +871,13 @@
         <v>27.86500000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27.4</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -930,22 +906,14 @@
         <v>27.86166666666669</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -973,22 +941,14 @@
         <v>27.85666666666669</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1016,17 +976,13 @@
         <v>27.85333333333336</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>27.7</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1055,22 +1011,14 @@
         <v>27.84666666666669</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1046,14 @@
         <v>27.84000000000002</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1141,17 +1081,13 @@
         <v>27.83333333333335</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>27.5</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1180,22 +1116,14 @@
         <v>27.83000000000002</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1223,22 +1151,14 @@
         <v>27.82333333333335</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1186,14 @@
         <v>27.81666666666668</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1309,22 +1221,14 @@
         <v>27.80833333333335</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1352,22 +1256,14 @@
         <v>27.80166666666668</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1395,22 +1291,14 @@
         <v>27.79833333333335</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1438,22 +1326,14 @@
         <v>27.78666666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1481,22 +1361,14 @@
         <v>27.78166666666668</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1524,22 +1396,14 @@
         <v>27.77500000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1567,22 +1431,14 @@
         <v>27.76833333333335</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1610,22 +1466,14 @@
         <v>27.75666666666668</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1653,22 +1501,14 @@
         <v>27.74666666666668</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1696,22 +1536,14 @@
         <v>27.74166666666668</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1739,22 +1571,14 @@
         <v>27.73666666666668</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K34" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1782,22 +1606,14 @@
         <v>27.73166666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K35" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1825,22 +1641,14 @@
         <v>27.72333333333334</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1868,22 +1676,14 @@
         <v>27.71666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1911,22 +1711,14 @@
         <v>27.71</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1954,22 +1746,14 @@
         <v>27.70166666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1997,22 +1781,14 @@
         <v>27.69166666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2040,22 +1816,14 @@
         <v>27.68166666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2083,22 +1851,14 @@
         <v>27.67</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2126,22 +1886,14 @@
         <v>27.66</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2169,22 +1921,14 @@
         <v>27.65</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2212,22 +1956,14 @@
         <v>27.64333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,22 +1991,14 @@
         <v>27.63333333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2298,22 +2026,14 @@
         <v>27.62666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2341,22 +2061,14 @@
         <v>27.61666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2384,22 +2096,14 @@
         <v>27.615</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2427,22 +2131,14 @@
         <v>27.615</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2470,22 +2166,14 @@
         <v>27.61666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2513,22 +2201,14 @@
         <v>27.615</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2603,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2306,14 @@
         <v>27.59833333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2681,22 +2341,14 @@
         <v>27.59333333333332</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2724,22 +2376,14 @@
         <v>27.58833333333332</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2767,22 +2411,14 @@
         <v>27.58499999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2810,22 +2446,14 @@
         <v>27.57999999999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2853,22 +2481,14 @@
         <v>27.58333333333332</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2896,22 +2516,14 @@
         <v>27.58333333333332</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2939,22 +2551,14 @@
         <v>27.58499999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K62" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2982,22 +2586,14 @@
         <v>27.58333333333332</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K63" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3025,22 +2621,14 @@
         <v>27.57999999999998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K64" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3068,22 +2656,14 @@
         <v>27.57999999999998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K65" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3111,22 +2691,14 @@
         <v>27.58166666666665</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K66" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3154,22 +2726,14 @@
         <v>27.58333333333331</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K67" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3197,22 +2761,14 @@
         <v>27.58499999999998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3240,22 +2796,14 @@
         <v>27.58833333333331</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K69" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3283,22 +2831,14 @@
         <v>27.58833333333331</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3326,22 +2866,14 @@
         <v>27.59166666666664</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3369,22 +2901,14 @@
         <v>27.59666666666664</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +2936,14 @@
         <v>27.59666666666664</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3455,22 +2971,14 @@
         <v>27.5983333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K74" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3006,14 @@
         <v>27.60166666666663</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3541,22 +3041,14 @@
         <v>27.60166666666663</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +3076,14 @@
         <v>27.59999999999997</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3627,22 +3111,14 @@
         <v>27.59999999999997</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K78" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3670,22 +3146,14 @@
         <v>27.5983333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3719,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3754,22 +3216,14 @@
         <v>27.59666666666663</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K81" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3797,22 +3251,14 @@
         <v>27.60166666666663</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3846,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3928,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +3426,14 @@
         <v>27.6183333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K87" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4053,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4094,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4129,22 +3531,14 @@
         <v>27.62166666666663</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K90" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4178,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4219,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4260,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4342,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4424,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4459,22 +3811,14 @@
         <v>27.63666666666664</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K98" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4508,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4549,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4584,22 +3916,14 @@
         <v>27.63833333333331</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K101" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4627,22 +3951,14 @@
         <v>27.63999999999998</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K102" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4676,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4752,22 +4056,14 @@
         <v>27.63666666666665</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K105" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4795,22 +4091,14 @@
         <v>27.63833333333331</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K106" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4838,22 +4126,14 @@
         <v>27.64333333333332</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K107" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4887,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4928,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4969,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5010,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5092,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5133,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5174,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5215,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5256,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5297,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5338,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5379,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5420,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5461,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5502,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5543,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5584,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5625,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5707,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5748,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5789,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5830,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5871,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5912,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5953,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5994,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6035,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6117,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6158,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6199,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6240,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6281,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6363,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6445,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6486,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6527,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6568,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6650,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6691,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6732,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6773,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6814,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6855,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6937,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6978,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7019,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7101,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7142,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7183,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7224,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7265,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7306,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7347,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7388,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7429,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7470,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7511,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7552,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7593,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7716,16 +6582,10 @@
         <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>1.060454545454546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -7754,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7824,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -7859,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -12896,17 +11756,13 @@
         <v>28.05666666666667</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K325" t="n">
-        <v>27.2</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
@@ -12935,22 +11791,14 @@
         <v>28.03833333333334</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="K326" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12978,22 +11826,14 @@
         <v>28.01833333333334</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K327" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13021,22 +11861,14 @@
         <v>28.00166666666667</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K328" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13064,22 +11896,14 @@
         <v>27.98166666666667</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K329" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13113,16 +11937,12 @@
         <v>0</v>
       </c>
       <c r="J330" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="K330" t="n">
         <v>27.2</v>
       </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13163,7 +11983,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M331" t="n">
@@ -13199,14 +12019,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="K332" t="n">
         <v>27.2</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M332" t="n">
@@ -13242,16 +12062,12 @@
         <v>0</v>
       </c>
       <c r="J333" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="K333" t="n">
         <v>27.2</v>
       </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +12108,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M334" t="n">
@@ -13322,20 +12138,18 @@
         <v>27.86333333333333</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
         <v>27.2</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M335" t="n">
@@ -13365,22 +12179,14 @@
         <v>27.84666666666666</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K336" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13408,22 +12214,14 @@
         <v>27.82999999999999</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K337" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13451,22 +12249,14 @@
         <v>27.81333333333333</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K338" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13494,22 +12284,14 @@
         <v>27.79333333333333</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K339" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13537,22 +12319,14 @@
         <v>27.77666666666666</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K340" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13580,22 +12354,14 @@
         <v>27.765</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K341" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13623,22 +12389,14 @@
         <v>27.75333333333333</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K342" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13666,22 +12424,14 @@
         <v>27.74166666666667</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K343" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13709,22 +12459,14 @@
         <v>27.73000000000001</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K344" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13752,22 +12494,14 @@
         <v>27.71666666666668</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K345" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13801,14 +12535,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13842,14 +12570,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13883,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13924,14 +12640,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-18 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M349"/>
+  <dimension ref="A1:M350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,19 +433,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C2" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D2" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E2" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F2" t="n">
-        <v>41024.0832</v>
+        <v>1474.0237</v>
       </c>
       <c r="G2" t="n">
         <v>27.90500000000003</v>
@@ -471,19 +471,19 @@
         <v>27.6</v>
       </c>
       <c r="C3" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D3" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E3" t="n">
         <v>27.6</v>
       </c>
       <c r="F3" t="n">
-        <v>20900</v>
+        <v>41024.0832</v>
       </c>
       <c r="G3" t="n">
-        <v>27.90833333333336</v>
+        <v>27.90500000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C4" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D4" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E4" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>20900</v>
       </c>
       <c r="G4" t="n">
-        <v>27.9116666666667</v>
+        <v>27.90833333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C5" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="D5" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E5" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2273</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
         <v>27.9116666666667</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C6" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D6" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E6" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F6" t="n">
-        <v>18500</v>
+        <v>2273</v>
       </c>
       <c r="G6" t="n">
-        <v>27.90833333333336</v>
+        <v>27.9116666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>27.5</v>
       </c>
       <c r="F7" t="n">
-        <v>7222.9046</v>
+        <v>18500</v>
       </c>
       <c r="G7" t="n">
-        <v>27.90500000000003</v>
+        <v>27.90833333333336</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>27.5</v>
       </c>
       <c r="F8" t="n">
-        <v>5749</v>
+        <v>7222.9046</v>
       </c>
       <c r="G8" t="n">
         <v>27.90500000000003</v>
@@ -681,19 +681,19 @@
         <v>27.5</v>
       </c>
       <c r="C9" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D9" t="n">
         <v>27.5</v>
       </c>
       <c r="E9" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F9" t="n">
-        <v>15209</v>
+        <v>5749</v>
       </c>
       <c r="G9" t="n">
-        <v>27.90000000000003</v>
+        <v>27.90500000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>27.5</v>
       </c>
       <c r="C10" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D10" t="n">
         <v>27.5</v>
       </c>
       <c r="E10" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F10" t="n">
-        <v>896.8884</v>
+        <v>15209</v>
       </c>
       <c r="G10" t="n">
-        <v>27.8966666666667</v>
+        <v>27.90000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,31 +748,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>896.8884</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.8966666666667</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>27.4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="K11" t="n">
         <v>27.4</v>
       </c>
-      <c r="D11" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>524.5946</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27.88833333333336</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -783,32 +787,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C12" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D12" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E12" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F12" t="n">
-        <v>119.3119</v>
+        <v>524.5946</v>
       </c>
       <c r="G12" t="n">
-        <v>27.87833333333336</v>
+        <v>27.88833333333336</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +830,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E13" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F13" t="n">
-        <v>8200.9782</v>
+        <v>119.3119</v>
       </c>
       <c r="G13" t="n">
-        <v>27.87333333333336</v>
+        <v>27.87833333333336</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,31 +873,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D14" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E14" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F14" t="n">
-        <v>17500</v>
+        <v>8200.9782</v>
       </c>
       <c r="G14" t="n">
-        <v>27.86500000000002</v>
+        <v>27.87333333333336</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27.3</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -900,20 +924,28 @@
         <v>27.4</v>
       </c>
       <c r="F15" t="n">
-        <v>68.1917</v>
+        <v>17500</v>
       </c>
       <c r="G15" t="n">
-        <v>27.86166666666669</v>
+        <v>27.86500000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +955,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D16" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E16" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>68.1917</v>
       </c>
       <c r="G16" t="n">
-        <v>27.85666666666669</v>
+        <v>27.86166666666669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +979,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +996,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D17" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E17" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>27.85333333333336</v>
+        <v>27.85666666666669</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1031,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C18" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D18" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E18" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F18" t="n">
-        <v>595.1626</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>27.84666666666669</v>
+        <v>27.85333333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1078,10 @@
         <v>27.5</v>
       </c>
       <c r="F19" t="n">
-        <v>95.9272</v>
+        <v>595.1626</v>
       </c>
       <c r="G19" t="n">
-        <v>27.84000000000002</v>
+        <v>27.84666666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1113,10 @@
         <v>27.5</v>
       </c>
       <c r="F20" t="n">
-        <v>10499.2354</v>
+        <v>95.9272</v>
       </c>
       <c r="G20" t="n">
-        <v>27.83333333333335</v>
+        <v>27.84000000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1148,10 @@
         <v>27.5</v>
       </c>
       <c r="F21" t="n">
-        <v>13072.3999</v>
+        <v>10499.2354</v>
       </c>
       <c r="G21" t="n">
-        <v>27.83000000000002</v>
+        <v>27.83333333333335</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1171,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C22" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D22" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E22" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F22" t="n">
-        <v>19812.5308</v>
+        <v>13072.3999</v>
       </c>
       <c r="G22" t="n">
-        <v>27.82333333333335</v>
+        <v>27.83000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1206,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C23" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D23" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E23" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1497</v>
+        <v>19812.5308</v>
       </c>
       <c r="G23" t="n">
-        <v>27.81666666666668</v>
+        <v>27.82333333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1253,10 @@
         <v>27.5</v>
       </c>
       <c r="F24" t="n">
-        <v>56</v>
+        <v>1497</v>
       </c>
       <c r="G24" t="n">
-        <v>27.80833333333335</v>
+        <v>27.81666666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C25" t="n">
         <v>27.5</v>
@@ -1247,13 +1285,13 @@
         <v>27.5</v>
       </c>
       <c r="E25" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="G25" t="n">
-        <v>27.80166666666668</v>
+        <v>27.80833333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1311,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C26" t="n">
         <v>27.5</v>
       </c>
-      <c r="C26" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D26" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E26" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F26" t="n">
-        <v>36300</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>27.79833333333335</v>
+        <v>27.80166666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1349,19 @@
         <v>27.5</v>
       </c>
       <c r="C27" t="n">
-        <v>27.3</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E27" t="n">
         <v>27.5</v>
       </c>
-      <c r="E27" t="n">
-        <v>27.3</v>
-      </c>
       <c r="F27" t="n">
-        <v>71307.15889999999</v>
+        <v>36300</v>
       </c>
       <c r="G27" t="n">
-        <v>27.78666666666668</v>
+        <v>27.79833333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1381,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C28" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D28" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E28" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F28" t="n">
-        <v>1572.8798</v>
+        <v>71307.15889999999</v>
       </c>
       <c r="G28" t="n">
-        <v>27.78166666666668</v>
+        <v>27.78666666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1416,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C29" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D29" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E29" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F29" t="n">
-        <v>6325.2821</v>
+        <v>1572.8798</v>
       </c>
       <c r="G29" t="n">
-        <v>27.77500000000001</v>
+        <v>27.78166666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1463,10 @@
         <v>27.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2583.0173</v>
+        <v>6325.2821</v>
       </c>
       <c r="G30" t="n">
-        <v>27.76833333333335</v>
+        <v>27.77500000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1486,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C31" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D31" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E31" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F31" t="n">
-        <v>7487.0545</v>
+        <v>2583.0173</v>
       </c>
       <c r="G31" t="n">
-        <v>27.75666666666668</v>
+        <v>27.76833333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1521,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C32" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D32" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E32" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F32" t="n">
-        <v>13289.8423</v>
+        <v>7487.0545</v>
       </c>
       <c r="G32" t="n">
-        <v>27.74666666666668</v>
+        <v>27.75666666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1559,19 @@
         <v>27.6</v>
       </c>
       <c r="C33" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D33" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E33" t="n">
         <v>27.6</v>
       </c>
       <c r="F33" t="n">
-        <v>31952.3315</v>
+        <v>13289.8423</v>
       </c>
       <c r="G33" t="n">
-        <v>27.74166666666668</v>
+        <v>27.74666666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,10 +1591,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C34" t="n">
         <v>27.7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>27.6</v>
       </c>
       <c r="D34" t="n">
         <v>27.7</v>
@@ -1565,10 +1603,10 @@
         <v>27.6</v>
       </c>
       <c r="F34" t="n">
-        <v>40585.4374</v>
+        <v>31952.3315</v>
       </c>
       <c r="G34" t="n">
-        <v>27.73666666666668</v>
+        <v>27.74166666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C35" t="n">
         <v>27.6</v>
       </c>
       <c r="D35" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E35" t="n">
         <v>27.6</v>
       </c>
       <c r="F35" t="n">
-        <v>55465.2825</v>
+        <v>40585.4374</v>
       </c>
       <c r="G35" t="n">
-        <v>27.73166666666667</v>
+        <v>27.73666666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1673,10 @@
         <v>27.6</v>
       </c>
       <c r="F36" t="n">
-        <v>14158</v>
+        <v>55465.2825</v>
       </c>
       <c r="G36" t="n">
-        <v>27.72333333333334</v>
+        <v>27.73166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1708,10 @@
         <v>27.6</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>14158</v>
       </c>
       <c r="G37" t="n">
-        <v>27.71666666666667</v>
+        <v>27.72333333333334</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1743,10 @@
         <v>27.6</v>
       </c>
       <c r="F38" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>27.71</v>
+        <v>27.71666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1778,10 @@
         <v>27.6</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>8000</v>
       </c>
       <c r="G39" t="n">
-        <v>27.70166666666667</v>
+        <v>27.71</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1813,10 @@
         <v>27.6</v>
       </c>
       <c r="F40" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="G40" t="n">
-        <v>27.69166666666667</v>
+        <v>27.70166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1848,10 @@
         <v>27.6</v>
       </c>
       <c r="F41" t="n">
-        <v>31.3405</v>
+        <v>110</v>
       </c>
       <c r="G41" t="n">
-        <v>27.68166666666666</v>
+        <v>27.69166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1883,10 @@
         <v>27.6</v>
       </c>
       <c r="F42" t="n">
-        <v>37100</v>
+        <v>31.3405</v>
       </c>
       <c r="G42" t="n">
-        <v>27.67</v>
+        <v>27.68166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1906,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C43" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D43" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E43" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F43" t="n">
-        <v>31700</v>
+        <v>37100</v>
       </c>
       <c r="G43" t="n">
-        <v>27.66</v>
+        <v>27.67</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1953,10 @@
         <v>27.7</v>
       </c>
       <c r="F44" t="n">
-        <v>37238.5746</v>
+        <v>31700</v>
       </c>
       <c r="G44" t="n">
-        <v>27.65</v>
+        <v>27.66</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1988,10 @@
         <v>27.7</v>
       </c>
       <c r="F45" t="n">
-        <v>31500</v>
+        <v>37238.5746</v>
       </c>
       <c r="G45" t="n">
-        <v>27.64333333333333</v>
+        <v>27.65</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2023,10 @@
         <v>27.7</v>
       </c>
       <c r="F46" t="n">
-        <v>949.2055</v>
+        <v>31500</v>
       </c>
       <c r="G46" t="n">
-        <v>27.63333333333334</v>
+        <v>27.64333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2046,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C47" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D47" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E47" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F47" t="n">
-        <v>23700</v>
+        <v>949.2055</v>
       </c>
       <c r="G47" t="n">
-        <v>27.62666666666667</v>
+        <v>27.63333333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2081,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C48" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D48" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E48" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F48" t="n">
-        <v>3415.1108</v>
+        <v>23700</v>
       </c>
       <c r="G48" t="n">
-        <v>27.61666666666667</v>
+        <v>27.62666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2116,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C49" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="D49" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E49" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F49" t="n">
-        <v>22100</v>
+        <v>3415.1108</v>
       </c>
       <c r="G49" t="n">
-        <v>27.615</v>
+        <v>27.61666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2151,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C50" t="n">
         <v>27.8</v>
@@ -2122,10 +2160,10 @@
         <v>27.8</v>
       </c>
       <c r="E50" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F50" t="n">
-        <v>19900</v>
+        <v>22100</v>
       </c>
       <c r="G50" t="n">
         <v>27.615</v>
@@ -2160,10 +2198,10 @@
         <v>27.8</v>
       </c>
       <c r="F51" t="n">
-        <v>27200</v>
+        <v>19900</v>
       </c>
       <c r="G51" t="n">
-        <v>27.61666666666667</v>
+        <v>27.615</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2233,10 @@
         <v>27.8</v>
       </c>
       <c r="F52" t="n">
-        <v>19500</v>
+        <v>27200</v>
       </c>
       <c r="G52" t="n">
-        <v>27.615</v>
+        <v>27.61666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2256,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C53" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D53" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E53" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1601</v>
+        <v>19500</v>
       </c>
       <c r="G53" t="n">
-        <v>27.61</v>
+        <v>27.615</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2291,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C54" t="n">
         <v>27.5</v>
       </c>
-      <c r="C54" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D54" t="n">
         <v>27.6</v>
       </c>
       <c r="E54" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F54" t="n">
-        <v>3294.8072</v>
+        <v>1601</v>
       </c>
       <c r="G54" t="n">
-        <v>27.605</v>
+        <v>27.61</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2326,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C55" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D55" t="n">
         <v>27.6</v>
       </c>
       <c r="E55" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F55" t="n">
-        <v>3093.0626</v>
+        <v>3294.8072</v>
       </c>
       <c r="G55" t="n">
-        <v>27.59833333333333</v>
+        <v>27.605</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2361,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C56" t="n">
         <v>27.5</v>
       </c>
-      <c r="C56" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D56" t="n">
         <v>27.6</v>
       </c>
       <c r="E56" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F56" t="n">
-        <v>1515</v>
+        <v>3093.0626</v>
       </c>
       <c r="G56" t="n">
-        <v>27.59333333333332</v>
+        <v>27.59833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2408,10 @@
         <v>27.4</v>
       </c>
       <c r="F57" t="n">
-        <v>2368.1075</v>
+        <v>1515</v>
       </c>
       <c r="G57" t="n">
-        <v>27.58833333333332</v>
+        <v>27.59333333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,7 +2431,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C58" t="n">
         <v>27.6</v>
@@ -2402,13 +2440,13 @@
         <v>27.6</v>
       </c>
       <c r="E58" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F58" t="n">
-        <v>601.6073</v>
+        <v>2368.1075</v>
       </c>
       <c r="G58" t="n">
-        <v>27.58499999999999</v>
+        <v>27.58833333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2478,10 @@
         <v>27.6</v>
       </c>
       <c r="F59" t="n">
-        <v>32.9648</v>
+        <v>601.6073</v>
       </c>
       <c r="G59" t="n">
-        <v>27.57999999999998</v>
+        <v>27.58499999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2501,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C60" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D60" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E60" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F60" t="n">
-        <v>1149.322</v>
+        <v>32.9648</v>
       </c>
       <c r="G60" t="n">
-        <v>27.58333333333332</v>
+        <v>27.57999999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,7 +2548,7 @@
         <v>27.7</v>
       </c>
       <c r="F61" t="n">
-        <v>2314.8387</v>
+        <v>1149.322</v>
       </c>
       <c r="G61" t="n">
         <v>27.58333333333332</v>
@@ -2545,10 +2583,10 @@
         <v>27.7</v>
       </c>
       <c r="F62" t="n">
-        <v>20235.8393</v>
+        <v>2314.8387</v>
       </c>
       <c r="G62" t="n">
-        <v>27.58499999999999</v>
+        <v>27.58333333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2606,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E63" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>20235.8393</v>
       </c>
       <c r="G63" t="n">
-        <v>27.58333333333332</v>
+        <v>27.58499999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2653,10 @@
         <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>27.57999999999998</v>
+        <v>27.58333333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,7 +2688,7 @@
         <v>27.6</v>
       </c>
       <c r="F65" t="n">
-        <v>65137.7535</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
         <v>27.57999999999998</v>
@@ -2685,10 +2723,10 @@
         <v>27.6</v>
       </c>
       <c r="F66" t="n">
-        <v>37500</v>
+        <v>65137.7535</v>
       </c>
       <c r="G66" t="n">
-        <v>27.58166666666665</v>
+        <v>27.57999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2758,10 @@
         <v>27.6</v>
       </c>
       <c r="F67" t="n">
-        <v>5716.5041</v>
+        <v>37500</v>
       </c>
       <c r="G67" t="n">
-        <v>27.58333333333331</v>
+        <v>27.58166666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2793,10 @@
         <v>27.6</v>
       </c>
       <c r="F68" t="n">
-        <v>23384.163</v>
+        <v>5716.5041</v>
       </c>
       <c r="G68" t="n">
-        <v>27.58499999999998</v>
+        <v>27.58333333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2828,10 @@
         <v>27.6</v>
       </c>
       <c r="F69" t="n">
-        <v>9191.0869</v>
+        <v>23384.163</v>
       </c>
       <c r="G69" t="n">
-        <v>27.58833333333331</v>
+        <v>27.58499999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,16 +2854,16 @@
         <v>27.6</v>
       </c>
       <c r="C70" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D70" t="n">
         <v>27.6</v>
       </c>
       <c r="E70" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F70" t="n">
-        <v>6256.0127</v>
+        <v>9191.0869</v>
       </c>
       <c r="G70" t="n">
         <v>27.58833333333331</v>
@@ -2848,22 +2886,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C71" t="n">
         <v>27.5</v>
       </c>
-      <c r="C71" t="n">
-        <v>27.6</v>
-      </c>
       <c r="D71" t="n">
         <v>27.6</v>
       </c>
       <c r="E71" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F71" t="n">
-        <v>85665.245</v>
+        <v>6256.0127</v>
       </c>
       <c r="G71" t="n">
-        <v>27.59166666666664</v>
+        <v>27.58833333333331</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2921,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C72" t="n">
         <v>27.6</v>
@@ -2892,13 +2930,13 @@
         <v>27.6</v>
       </c>
       <c r="E72" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F72" t="n">
-        <v>3084.4869</v>
+        <v>85665.245</v>
       </c>
       <c r="G72" t="n">
-        <v>27.59666666666664</v>
+        <v>27.59166666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,7 +2968,7 @@
         <v>27.6</v>
       </c>
       <c r="F73" t="n">
-        <v>15242</v>
+        <v>3084.4869</v>
       </c>
       <c r="G73" t="n">
         <v>27.59666666666664</v>
@@ -2953,22 +2991,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C74" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D74" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E74" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F74" t="n">
-        <v>2880.9809</v>
+        <v>15242</v>
       </c>
       <c r="G74" t="n">
-        <v>27.5983333333333</v>
+        <v>27.59666666666664</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3026,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E75" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F75" t="n">
-        <v>2760.0919</v>
+        <v>2880.9809</v>
       </c>
       <c r="G75" t="n">
-        <v>27.60166666666663</v>
+        <v>27.5983333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,7 +3073,7 @@
         <v>27.6</v>
       </c>
       <c r="F76" t="n">
-        <v>34297.9619</v>
+        <v>2760.0919</v>
       </c>
       <c r="G76" t="n">
         <v>27.60166666666663</v>
@@ -3070,10 +3108,10 @@
         <v>27.6</v>
       </c>
       <c r="F77" t="n">
-        <v>13600</v>
+        <v>34297.9619</v>
       </c>
       <c r="G77" t="n">
-        <v>27.59999999999997</v>
+        <v>27.60166666666663</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,16 +3134,16 @@
         <v>27.6</v>
       </c>
       <c r="C78" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D78" t="n">
         <v>27.6</v>
       </c>
       <c r="E78" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F78" t="n">
-        <v>283712.9093</v>
+        <v>13600</v>
       </c>
       <c r="G78" t="n">
         <v>27.59999999999997</v>
@@ -3128,22 +3166,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C79" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D79" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E79" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F79" t="n">
-        <v>20314.2428</v>
+        <v>283712.9093</v>
       </c>
       <c r="G79" t="n">
-        <v>27.5983333333333</v>
+        <v>27.59999999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3201,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="C80" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D80" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="E80" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F80" t="n">
-        <v>48534.1149</v>
+        <v>20314.2428</v>
       </c>
       <c r="G80" t="n">
-        <v>27.59499999999997</v>
+        <v>27.5983333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3236,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C81" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D81" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E81" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F81" t="n">
-        <v>259614.3478</v>
+        <v>48534.1149</v>
       </c>
       <c r="G81" t="n">
-        <v>27.59666666666663</v>
+        <v>27.59499999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3271,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C82" t="n">
         <v>27.6</v>
@@ -3242,13 +3280,13 @@
         <v>27.6</v>
       </c>
       <c r="E82" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F82" t="n">
-        <v>207584.8084</v>
+        <v>259614.3478</v>
       </c>
       <c r="G82" t="n">
-        <v>27.60166666666663</v>
+        <v>27.59666666666663</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3306,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C83" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D83" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E83" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>207584.8084</v>
       </c>
       <c r="G83" t="n">
-        <v>27.60499999999996</v>
+        <v>27.60166666666663</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3344,19 @@
         <v>27.7</v>
       </c>
       <c r="C84" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D84" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E84" t="n">
         <v>27.7</v>
       </c>
       <c r="F84" t="n">
-        <v>67477.16187050359</v>
+        <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>27.60999999999996</v>
+        <v>27.60499999999996</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3376,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C85" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E85" t="n">
         <v>27.7</v>
       </c>
-      <c r="D85" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E85" t="n">
-        <v>27.3</v>
-      </c>
       <c r="F85" t="n">
-        <v>35561.108</v>
+        <v>67477.16187050359</v>
       </c>
       <c r="G85" t="n">
-        <v>27.6133333333333</v>
+        <v>27.60999999999996</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3411,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C86" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D86" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E86" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>35561.108</v>
       </c>
       <c r="G86" t="n">
-        <v>27.61499999999996</v>
+        <v>27.6133333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3446,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C87" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D87" t="n">
         <v>27.8</v>
       </c>
       <c r="E87" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F87" t="n">
-        <v>24787.30779928057</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
-        <v>27.6183333333333</v>
+        <v>27.61499999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3484,19 @@
         <v>27.6</v>
       </c>
       <c r="C88" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D88" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E88" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F88" t="n">
-        <v>66429.2224</v>
+        <v>24787.30779928057</v>
       </c>
       <c r="G88" t="n">
-        <v>27.61999999999997</v>
+        <v>27.6183333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,19 +3516,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C89" t="n">
         <v>27.7</v>
       </c>
       <c r="D89" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E89" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F89" t="n">
-        <v>4411.6891</v>
+        <v>66429.2224</v>
       </c>
       <c r="G89" t="n">
         <v>27.61999999999997</v>
@@ -3513,10 +3551,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C90" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D90" t="n">
         <v>27.8</v>
@@ -3525,10 +3563,10 @@
         <v>27.7</v>
       </c>
       <c r="F90" t="n">
-        <v>11376.9009</v>
+        <v>4411.6891</v>
       </c>
       <c r="G90" t="n">
-        <v>27.62166666666663</v>
+        <v>27.61999999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,13 +3595,13 @@
         <v>27.8</v>
       </c>
       <c r="E91" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F91" t="n">
-        <v>12589.92805755396</v>
+        <v>11376.9009</v>
       </c>
       <c r="G91" t="n">
-        <v>27.62666666666663</v>
+        <v>27.62166666666663</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3633,10 @@
         <v>27.8</v>
       </c>
       <c r="F92" t="n">
-        <v>10944.5287</v>
+        <v>12589.92805755396</v>
       </c>
       <c r="G92" t="n">
-        <v>27.62999999999996</v>
+        <v>27.62666666666663</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,7 +3656,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C93" t="n">
         <v>27.8</v>
@@ -3627,13 +3665,13 @@
         <v>27.8</v>
       </c>
       <c r="E93" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F93" t="n">
-        <v>185</v>
+        <v>10944.5287</v>
       </c>
       <c r="G93" t="n">
-        <v>27.63166666666663</v>
+        <v>27.62999999999996</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3694,19 @@
         <v>27.7</v>
       </c>
       <c r="C94" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D94" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E94" t="n">
         <v>27.7</v>
       </c>
       <c r="F94" t="n">
-        <v>145.3555</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
-        <v>27.6333333333333</v>
+        <v>27.63166666666663</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3738,10 @@
         <v>27.7</v>
       </c>
       <c r="F95" t="n">
-        <v>9237.545099999999</v>
+        <v>145.3555</v>
       </c>
       <c r="G95" t="n">
-        <v>27.63499999999997</v>
+        <v>27.6333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3761,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C96" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D96" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E96" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F96" t="n">
-        <v>8144.4973</v>
+        <v>9237.545099999999</v>
       </c>
       <c r="G96" t="n">
-        <v>27.6333333333333</v>
+        <v>27.63499999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3796,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C97" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D97" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E97" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>8144.4973</v>
       </c>
       <c r="G97" t="n">
-        <v>27.63499999999997</v>
+        <v>27.6333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3843,10 @@
         <v>27.7</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G98" t="n">
-        <v>27.63666666666664</v>
+        <v>27.63499999999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3866,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C99" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D99" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E99" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F99" t="n">
-        <v>12589.928</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>27.63499999999998</v>
+        <v>27.63666666666664</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3901,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C100" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D100" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E100" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>12589.928</v>
       </c>
       <c r="G100" t="n">
-        <v>27.63666666666665</v>
+        <v>27.63499999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3948,10 @@
         <v>27.7</v>
       </c>
       <c r="F101" t="n">
-        <v>14500</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>27.63833333333331</v>
+        <v>27.63666666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3983,10 @@
         <v>27.7</v>
       </c>
       <c r="F102" t="n">
-        <v>9670</v>
+        <v>14500</v>
       </c>
       <c r="G102" t="n">
-        <v>27.63999999999998</v>
+        <v>27.63833333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4006,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="C103" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D103" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E103" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F103" t="n">
-        <v>512.3773</v>
+        <v>9670</v>
       </c>
       <c r="G103" t="n">
-        <v>27.63666666666665</v>
+        <v>27.63999999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,19 +4041,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C104" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D104" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E104" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F104" t="n">
-        <v>35038.0884</v>
+        <v>512.3773</v>
       </c>
       <c r="G104" t="n">
         <v>27.63666666666665</v>
@@ -4050,7 +4088,7 @@
         <v>27.7</v>
       </c>
       <c r="F105" t="n">
-        <v>5900.2841</v>
+        <v>35038.0884</v>
       </c>
       <c r="G105" t="n">
         <v>27.63666666666665</v>
@@ -4076,19 +4114,19 @@
         <v>27.7</v>
       </c>
       <c r="C106" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D106" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E106" t="n">
         <v>27.7</v>
       </c>
       <c r="F106" t="n">
-        <v>71113.0923</v>
+        <v>5900.2841</v>
       </c>
       <c r="G106" t="n">
-        <v>27.63833333333331</v>
+        <v>27.63666666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4146,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C107" t="n">
         <v>27.8</v>
       </c>
-      <c r="C107" t="n">
-        <v>27.9</v>
-      </c>
       <c r="D107" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E107" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F107" t="n">
-        <v>1578.3717</v>
+        <v>71113.0923</v>
       </c>
       <c r="G107" t="n">
-        <v>27.64333333333332</v>
+        <v>27.63833333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4181,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C108" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D108" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E108" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>44519.2417</v>
+        <v>1578.3717</v>
       </c>
       <c r="G108" t="n">
-        <v>27.64666666666665</v>
+        <v>27.64333333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4216,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C109" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D109" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="E109" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F109" t="n">
-        <v>12</v>
+        <v>44519.2417</v>
       </c>
       <c r="G109" t="n">
-        <v>27.64833333333332</v>
+        <v>27.64666666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4251,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C110" t="n">
         <v>27.9</v>
@@ -4222,13 +4260,13 @@
         <v>27.9</v>
       </c>
       <c r="E110" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F110" t="n">
-        <v>36933</v>
+        <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>27.64999999999999</v>
+        <v>27.64833333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4298,10 @@
         <v>27.8</v>
       </c>
       <c r="F111" t="n">
-        <v>11597.7129</v>
+        <v>36933</v>
       </c>
       <c r="G111" t="n">
-        <v>27.65166666666666</v>
+        <v>27.64999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,16 +4324,16 @@
         <v>27.8</v>
       </c>
       <c r="C112" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D112" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E112" t="n">
         <v>27.8</v>
       </c>
       <c r="F112" t="n">
-        <v>21456.0506</v>
+        <v>11597.7129</v>
       </c>
       <c r="G112" t="n">
         <v>27.65166666666666</v>
@@ -4318,22 +4356,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C113" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D113" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E113" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F113" t="n">
-        <v>11</v>
+        <v>21456.0506</v>
       </c>
       <c r="G113" t="n">
-        <v>27.65833333333332</v>
+        <v>27.65166666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4391,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C114" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D114" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E114" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F114" t="n">
-        <v>39748.4063</v>
+        <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>27.66166666666666</v>
+        <v>27.65833333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4426,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C115" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D115" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E115" t="n">
         <v>27.8</v>
       </c>
       <c r="F115" t="n">
-        <v>84048.2944</v>
+        <v>39748.4063</v>
       </c>
       <c r="G115" t="n">
-        <v>27.66833333333333</v>
+        <v>27.66166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4461,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C116" t="n">
         <v>27.9</v>
@@ -4435,10 +4473,10 @@
         <v>27.8</v>
       </c>
       <c r="F116" t="n">
-        <v>25304.8354</v>
+        <v>84048.2944</v>
       </c>
       <c r="G116" t="n">
-        <v>27.67333333333333</v>
+        <v>27.66833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4499,19 @@
         <v>27.8</v>
       </c>
       <c r="C117" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D117" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E117" t="n">
         <v>27.8</v>
       </c>
       <c r="F117" t="n">
-        <v>1718.3069</v>
+        <v>25304.8354</v>
       </c>
       <c r="G117" t="n">
-        <v>27.67666666666667</v>
+        <v>27.67333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4531,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C118" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D118" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E118" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F118" t="n">
-        <v>36812.1792</v>
+        <v>1718.3069</v>
       </c>
       <c r="G118" t="n">
-        <v>27.68166666666667</v>
+        <v>27.67666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4569,19 @@
         <v>27.9</v>
       </c>
       <c r="C119" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D119" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E119" t="n">
         <v>27.9</v>
       </c>
       <c r="F119" t="n">
-        <v>2965.15517266187</v>
+        <v>36812.1792</v>
       </c>
       <c r="G119" t="n">
-        <v>27.68833333333334</v>
+        <v>27.68166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4601,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="C120" t="n">
         <v>28</v>
@@ -4575,10 +4613,10 @@
         <v>27.9</v>
       </c>
       <c r="F120" t="n">
-        <v>48174.99562733813</v>
+        <v>2965.15517266187</v>
       </c>
       <c r="G120" t="n">
-        <v>27.69333333333334</v>
+        <v>27.68833333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4607,13 +4645,13 @@
         <v>28</v>
       </c>
       <c r="E121" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F121" t="n">
-        <v>11387.75</v>
+        <v>48174.99562733813</v>
       </c>
       <c r="G121" t="n">
-        <v>27.69833333333333</v>
+        <v>27.69333333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4683,10 @@
         <v>28</v>
       </c>
       <c r="F122" t="n">
-        <v>22792.2975</v>
+        <v>11387.75</v>
       </c>
       <c r="G122" t="n">
-        <v>27.70333333333333</v>
+        <v>27.69833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4718,10 @@
         <v>28</v>
       </c>
       <c r="F123" t="n">
-        <v>1388</v>
+        <v>22792.2975</v>
       </c>
       <c r="G123" t="n">
-        <v>27.71</v>
+        <v>27.70333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4741,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C124" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D124" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E124" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F124" t="n">
-        <v>12</v>
+        <v>1388</v>
       </c>
       <c r="G124" t="n">
-        <v>27.71833333333334</v>
+        <v>27.71</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,7 +4776,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C125" t="n">
         <v>28.1</v>
@@ -4747,13 +4785,13 @@
         <v>28.1</v>
       </c>
       <c r="E125" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F125" t="n">
-        <v>13482.6412</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>27.72666666666667</v>
+        <v>27.71833333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4823,10 @@
         <v>28</v>
       </c>
       <c r="F126" t="n">
-        <v>6404.6938</v>
+        <v>13482.6412</v>
       </c>
       <c r="G126" t="n">
-        <v>27.735</v>
+        <v>27.72666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,7 +4846,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C127" t="n">
         <v>28.1</v>
@@ -4817,13 +4855,13 @@
         <v>28.1</v>
       </c>
       <c r="E127" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F127" t="n">
-        <v>40686.8173</v>
+        <v>6404.6938</v>
       </c>
       <c r="G127" t="n">
-        <v>27.74333333333334</v>
+        <v>27.735</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +4884,19 @@
         <v>27.9</v>
       </c>
       <c r="C128" t="n">
-        <v>27.8</v>
+        <v>28.1</v>
       </c>
       <c r="D128" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E128" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F128" t="n">
-        <v>129383.3551</v>
+        <v>40686.8173</v>
       </c>
       <c r="G128" t="n">
-        <v>27.74666666666667</v>
+        <v>27.74333333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4916,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="C129" t="n">
         <v>27.8</v>
@@ -4890,10 +4928,10 @@
         <v>27.8</v>
       </c>
       <c r="F129" t="n">
-        <v>16536.3617</v>
+        <v>129383.3551</v>
       </c>
       <c r="G129" t="n">
-        <v>27.75</v>
+        <v>27.74666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4951,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="C130" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="D130" t="n">
         <v>28</v>
       </c>
       <c r="E130" t="n">
-        <v>28</v>
+        <v>27.8</v>
       </c>
       <c r="F130" t="n">
-        <v>11</v>
+        <v>16536.3617</v>
       </c>
       <c r="G130" t="n">
-        <v>27.75833333333334</v>
+        <v>27.75</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,7 +4986,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="C131" t="n">
         <v>28</v>
@@ -4957,13 +4995,13 @@
         <v>28</v>
       </c>
       <c r="E131" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="F131" t="n">
-        <v>22489.8026</v>
+        <v>11</v>
       </c>
       <c r="G131" t="n">
-        <v>27.765</v>
+        <v>27.75833333333334</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,16 +5024,16 @@
         <v>27.7</v>
       </c>
       <c r="C132" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D132" t="n">
+        <v>28</v>
+      </c>
+      <c r="E132" t="n">
         <v>27.7</v>
       </c>
-      <c r="E132" t="n">
-        <v>27.6</v>
-      </c>
       <c r="F132" t="n">
-        <v>53591.5748</v>
+        <v>22489.8026</v>
       </c>
       <c r="G132" t="n">
         <v>27.765</v>
@@ -5018,22 +5056,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C133" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D133" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="E133" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F133" t="n">
-        <v>26829.3928</v>
+        <v>53591.5748</v>
       </c>
       <c r="G133" t="n">
-        <v>27.77166666666667</v>
+        <v>27.765</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5091,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C134" t="n">
         <v>28</v>
       </c>
-      <c r="C134" t="n">
-        <v>28.1</v>
-      </c>
       <c r="D134" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E134" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F134" t="n">
-        <v>14300</v>
+        <v>26829.3928</v>
       </c>
       <c r="G134" t="n">
-        <v>27.78166666666667</v>
+        <v>27.77166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5126,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>28</v>
+      </c>
+      <c r="C135" t="n">
         <v>28.1</v>
       </c>
-      <c r="C135" t="n">
-        <v>28.2</v>
-      </c>
       <c r="D135" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E135" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F135" t="n">
-        <v>54867.8297</v>
+        <v>14300</v>
       </c>
       <c r="G135" t="n">
-        <v>27.79166666666667</v>
+        <v>27.78166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,7 +5161,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C136" t="n">
         <v>28.2</v>
@@ -5132,13 +5170,13 @@
         <v>28.2</v>
       </c>
       <c r="E136" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="F136" t="n">
-        <v>122849.8527</v>
+        <v>54867.8297</v>
       </c>
       <c r="G136" t="n">
-        <v>27.80166666666668</v>
+        <v>27.79166666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5164,16 +5202,16 @@
         <v>28.2</v>
       </c>
       <c r="D137" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E137" t="n">
         <v>28.2</v>
       </c>
       <c r="F137" t="n">
-        <v>66186.0724</v>
+        <v>122849.8527</v>
       </c>
       <c r="G137" t="n">
-        <v>27.81166666666668</v>
+        <v>27.80166666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5231,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C138" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D138" t="n">
         <v>28.3</v>
       </c>
       <c r="E138" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F138" t="n">
-        <v>12253.9222</v>
+        <v>66186.0724</v>
       </c>
       <c r="G138" t="n">
-        <v>27.82500000000001</v>
+        <v>27.81166666666668</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5266,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="C139" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D139" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E139" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F139" t="n">
-        <v>23279.7565</v>
+        <v>12253.9222</v>
       </c>
       <c r="G139" t="n">
-        <v>27.83833333333335</v>
+        <v>27.82500000000001</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5301,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C140" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D140" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E140" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F140" t="n">
-        <v>13692.8604</v>
+        <v>23279.7565</v>
       </c>
       <c r="G140" t="n">
-        <v>27.85500000000001</v>
+        <v>27.83833333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5304,16 +5342,16 @@
         <v>28.3</v>
       </c>
       <c r="D141" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E141" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="F141" t="n">
-        <v>62877.072</v>
+        <v>13692.8604</v>
       </c>
       <c r="G141" t="n">
-        <v>27.86666666666668</v>
+        <v>27.85500000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5336,25 +5374,25 @@
         <v>28.3</v>
       </c>
       <c r="C142" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D142" t="n">
         <v>28.4</v>
       </c>
       <c r="E142" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="F142" t="n">
-        <v>34424.1245</v>
+        <v>62877.072</v>
       </c>
       <c r="G142" t="n">
-        <v>27.87666666666668</v>
+        <v>27.86666666666668</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5368,22 +5406,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="C143" t="n">
         <v>28.2</v>
       </c>
       <c r="D143" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E143" t="n">
         <v>28.2</v>
       </c>
       <c r="F143" t="n">
-        <v>54417.8134</v>
+        <v>34424.1245</v>
       </c>
       <c r="G143" t="n">
-        <v>27.88500000000001</v>
+        <v>27.87666666666668</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,28 +5441,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="C144" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="D144" t="n">
         <v>28.6</v>
       </c>
       <c r="E144" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F144" t="n">
-        <v>94371.1128</v>
+        <v>54417.8134</v>
       </c>
       <c r="G144" t="n">
-        <v>27.89833333333335</v>
+        <v>27.88500000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5438,28 +5476,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E145" t="n">
         <v>28.3</v>
       </c>
-      <c r="C145" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D145" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E145" t="n">
-        <v>28.2</v>
-      </c>
       <c r="F145" t="n">
-        <v>21102.4116</v>
+        <v>94371.1128</v>
       </c>
       <c r="G145" t="n">
-        <v>27.90833333333335</v>
+        <v>27.89833333333335</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5473,28 +5511,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C146" t="n">
         <v>28.3</v>
       </c>
       <c r="D146" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="E146" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F146" t="n">
-        <v>46570.0322</v>
+        <v>21102.4116</v>
       </c>
       <c r="G146" t="n">
-        <v>27.91666666666668</v>
+        <v>27.90833333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5508,10 +5546,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C147" t="n">
         <v>28.3</v>
-      </c>
-      <c r="C147" t="n">
-        <v>28.5</v>
       </c>
       <c r="D147" t="n">
         <v>28.6</v>
@@ -5520,16 +5558,16 @@
         <v>28.3</v>
       </c>
       <c r="F147" t="n">
-        <v>64534.2771</v>
+        <v>46570.0322</v>
       </c>
       <c r="G147" t="n">
-        <v>27.93333333333334</v>
+        <v>27.91666666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5543,28 +5581,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C148" t="n">
         <v>28.5</v>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E148" t="n">
         <v>28.3</v>
       </c>
-      <c r="D148" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>28.2</v>
-      </c>
       <c r="F148" t="n">
-        <v>135121.4965</v>
+        <v>64534.2771</v>
       </c>
       <c r="G148" t="n">
-        <v>27.94333333333334</v>
+        <v>27.93333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -5578,28 +5616,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C149" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="D149" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E149" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="F149" t="n">
-        <v>112539.0174</v>
+        <v>135121.4965</v>
       </c>
       <c r="G149" t="n">
-        <v>27.95833333333334</v>
+        <v>27.94333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -5613,7 +5651,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="C150" t="n">
         <v>28.6</v>
@@ -5622,13 +5660,13 @@
         <v>28.6</v>
       </c>
       <c r="E150" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F150" t="n">
-        <v>40450.1222</v>
+        <v>112539.0174</v>
       </c>
       <c r="G150" t="n">
-        <v>27.97166666666667</v>
+        <v>27.95833333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,7 +5686,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C151" t="n">
         <v>28.6</v>
@@ -5657,19 +5695,19 @@
         <v>28.6</v>
       </c>
       <c r="E151" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F151" t="n">
-        <v>29578.5852</v>
+        <v>40450.1222</v>
       </c>
       <c r="G151" t="n">
-        <v>27.98500000000001</v>
+        <v>27.97166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5683,7 +5721,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C152" t="n">
         <v>28.6</v>
@@ -5692,13 +5730,13 @@
         <v>28.6</v>
       </c>
       <c r="E152" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F152" t="n">
-        <v>28231.1816</v>
+        <v>29578.5852</v>
       </c>
       <c r="G152" t="n">
-        <v>27.99833333333334</v>
+        <v>27.98500000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5756,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C153" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="D153" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E153" t="n">
         <v>28.5</v>
       </c>
-      <c r="E153" t="n">
-        <v>28.4</v>
-      </c>
       <c r="F153" t="n">
-        <v>10434.397</v>
+        <v>28231.1816</v>
       </c>
       <c r="G153" t="n">
-        <v>28.00833333333334</v>
+        <v>27.99833333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5759,16 +5797,16 @@
         <v>28.4</v>
       </c>
       <c r="D154" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E154" t="n">
         <v>28.4</v>
       </c>
       <c r="F154" t="n">
-        <v>1118.8013</v>
+        <v>10434.397</v>
       </c>
       <c r="G154" t="n">
-        <v>28.02000000000001</v>
+        <v>28.00833333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5791,19 +5829,19 @@
         <v>28.4</v>
       </c>
       <c r="C155" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D155" t="n">
         <v>28.4</v>
       </c>
       <c r="E155" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F155" t="n">
-        <v>194459.5535</v>
+        <v>1118.8013</v>
       </c>
       <c r="G155" t="n">
-        <v>28.03000000000001</v>
+        <v>28.02000000000001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5861,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C156" t="n">
         <v>28.3</v>
       </c>
-      <c r="C156" t="n">
-        <v>27.9</v>
-      </c>
       <c r="D156" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E156" t="n">
         <v>28.3</v>
       </c>
-      <c r="E156" t="n">
-        <v>27.9</v>
-      </c>
       <c r="F156" t="n">
-        <v>187256.5123</v>
+        <v>194459.5535</v>
       </c>
       <c r="G156" t="n">
-        <v>28.03666666666668</v>
+        <v>28.03000000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5899,19 @@
         <v>28.3</v>
       </c>
       <c r="C157" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="D157" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E157" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="F157" t="n">
-        <v>46969.8031</v>
+        <v>187256.5123</v>
       </c>
       <c r="G157" t="n">
-        <v>28.04833333333334</v>
+        <v>28.03666666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5931,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="C158" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D158" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E158" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="F158" t="n">
-        <v>50.1754</v>
+        <v>46969.8031</v>
       </c>
       <c r="G158" t="n">
-        <v>28.06166666666667</v>
+        <v>28.04833333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5969,19 @@
         <v>28.5</v>
       </c>
       <c r="C159" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D159" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E159" t="n">
         <v>28.5</v>
       </c>
       <c r="F159" t="n">
-        <v>60252.9543</v>
+        <v>50.1754</v>
       </c>
       <c r="G159" t="n">
-        <v>28.08000000000001</v>
+        <v>28.06166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6001,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C160" t="n">
         <v>28.6</v>
       </c>
-      <c r="C160" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D160" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E160" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F160" t="n">
-        <v>510</v>
+        <v>60252.9543</v>
       </c>
       <c r="G160" t="n">
-        <v>28.09666666666667</v>
+        <v>28.08000000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6036,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C161" t="n">
         <v>28.7</v>
       </c>
-      <c r="C161" t="n">
-        <v>28.8</v>
-      </c>
       <c r="D161" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E161" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F161" t="n">
-        <v>211177.5886</v>
+        <v>510</v>
       </c>
       <c r="G161" t="n">
-        <v>28.11500000000001</v>
+        <v>28.09666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6071,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C162" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D162" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E162" t="n">
         <v>28.7</v>
       </c>
       <c r="F162" t="n">
-        <v>17431.6028</v>
+        <v>211177.5886</v>
       </c>
       <c r="G162" t="n">
-        <v>28.13166666666667</v>
+        <v>28.11500000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6071,19 +6109,19 @@
         <v>28.9</v>
       </c>
       <c r="C163" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D163" t="n">
         <v>28.9</v>
       </c>
       <c r="E163" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>17431.6028</v>
       </c>
       <c r="G163" t="n">
-        <v>28.15500000000001</v>
+        <v>28.13166666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6153,10 @@
         <v>28.9</v>
       </c>
       <c r="F164" t="n">
-        <v>10886.9896</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>28.17500000000001</v>
+        <v>28.15500000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6176,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C165" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D165" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E165" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F165" t="n">
-        <v>95701</v>
+        <v>10886.9896</v>
       </c>
       <c r="G165" t="n">
-        <v>28.19333333333334</v>
+        <v>28.17500000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6223,10 @@
         <v>28.8</v>
       </c>
       <c r="F166" t="n">
-        <v>3765.9467</v>
+        <v>95701</v>
       </c>
       <c r="G166" t="n">
-        <v>28.21</v>
+        <v>28.19333333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6258,10 @@
         <v>28.8</v>
       </c>
       <c r="F167" t="n">
-        <v>56140.5431</v>
+        <v>3765.9467</v>
       </c>
       <c r="G167" t="n">
-        <v>28.225</v>
+        <v>28.21</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6293,10 @@
         <v>28.8</v>
       </c>
       <c r="F168" t="n">
-        <v>37292.4728</v>
+        <v>56140.5431</v>
       </c>
       <c r="G168" t="n">
-        <v>28.24333333333334</v>
+        <v>28.225</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6319,19 @@
         <v>28.8</v>
       </c>
       <c r="C169" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D169" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E169" t="n">
         <v>28.8</v>
       </c>
       <c r="F169" t="n">
-        <v>92274.4924</v>
+        <v>37292.4728</v>
       </c>
       <c r="G169" t="n">
-        <v>28.26</v>
+        <v>28.24333333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,7 +6351,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C170" t="n">
         <v>28.9</v>
@@ -6322,13 +6360,13 @@
         <v>28.9</v>
       </c>
       <c r="E170" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F170" t="n">
-        <v>50534.3079</v>
+        <v>92274.4924</v>
       </c>
       <c r="G170" t="n">
-        <v>28.27666666666667</v>
+        <v>28.26</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6386,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C171" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D171" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E171" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F171" t="n">
-        <v>103770.4009</v>
+        <v>50534.3079</v>
       </c>
       <c r="G171" t="n">
-        <v>28.29666666666667</v>
+        <v>28.27666666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6421,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C172" t="n">
         <v>29.1</v>
       </c>
       <c r="D172" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E172" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F172" t="n">
-        <v>70447.6134</v>
+        <v>103770.4009</v>
       </c>
       <c r="G172" t="n">
-        <v>28.31833333333333</v>
+        <v>28.29666666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6421,19 +6459,19 @@
         <v>29.1</v>
       </c>
       <c r="C173" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D173" t="n">
         <v>29.2</v>
       </c>
       <c r="E173" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F173" t="n">
-        <v>62948.7931</v>
+        <v>70447.6134</v>
       </c>
       <c r="G173" t="n">
-        <v>28.34</v>
+        <v>28.31833333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,7 +6491,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C174" t="n">
         <v>29.2</v>
@@ -6462,13 +6500,13 @@
         <v>29.2</v>
       </c>
       <c r="E174" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F174" t="n">
-        <v>10293</v>
+        <v>62948.7931</v>
       </c>
       <c r="G174" t="n">
-        <v>28.36333333333333</v>
+        <v>28.34</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6529,19 @@
         <v>29.2</v>
       </c>
       <c r="C175" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D175" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E175" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F175" t="n">
-        <v>161274.7141356164</v>
+        <v>10293</v>
       </c>
       <c r="G175" t="n">
-        <v>28.38666666666666</v>
+        <v>28.36333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,7 +6561,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C176" t="n">
         <v>29.3</v>
@@ -6532,13 +6570,13 @@
         <v>29.3</v>
       </c>
       <c r="E176" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F176" t="n">
-        <v>97841.7396</v>
+        <v>161274.7141356164</v>
       </c>
       <c r="G176" t="n">
-        <v>28.40999999999999</v>
+        <v>28.38666666666666</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6596,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C177" t="n">
         <v>29.3</v>
       </c>
       <c r="D177" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E177" t="n">
         <v>29.3</v>
       </c>
       <c r="F177" t="n">
-        <v>230600.2825</v>
+        <v>97841.7396</v>
       </c>
       <c r="G177" t="n">
-        <v>28.435</v>
+        <v>28.40999999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,10 +6631,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C178" t="n">
         <v>29.3</v>
-      </c>
-      <c r="C178" t="n">
-        <v>29.4</v>
       </c>
       <c r="D178" t="n">
         <v>29.4</v>
@@ -6605,16 +6643,16 @@
         <v>29.3</v>
       </c>
       <c r="F178" t="n">
-        <v>20892.0646</v>
+        <v>230600.2825</v>
       </c>
       <c r="G178" t="n">
-        <v>28.45999999999999</v>
+        <v>28.435</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6628,22 +6666,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C179" t="n">
         <v>29.4</v>
       </c>
-      <c r="C179" t="n">
-        <v>29.9</v>
-      </c>
       <c r="D179" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="E179" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F179" t="n">
-        <v>458046.8169826087</v>
+        <v>20892.0646</v>
       </c>
       <c r="G179" t="n">
-        <v>28.49166666666666</v>
+        <v>28.45999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,28 +6701,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C180" t="n">
-        <v>29.6</v>
+        <v>29.9</v>
       </c>
       <c r="D180" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="E180" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F180" t="n">
-        <v>283499.5185</v>
+        <v>458046.8169826087</v>
       </c>
       <c r="G180" t="n">
-        <v>28.51833333333333</v>
+        <v>28.49166666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -6698,7 +6736,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="C181" t="n">
         <v>29.6</v>
@@ -6707,13 +6745,13 @@
         <v>29.7</v>
       </c>
       <c r="E181" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="F181" t="n">
-        <v>9805</v>
+        <v>283499.5185</v>
       </c>
       <c r="G181" t="n">
-        <v>28.54499999999999</v>
+        <v>28.51833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,10 +6771,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="C182" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D182" t="n">
         <v>29.7</v>
@@ -6745,16 +6783,16 @@
         <v>29.4</v>
       </c>
       <c r="F182" t="n">
-        <v>371303.7116</v>
+        <v>9805</v>
       </c>
       <c r="G182" t="n">
-        <v>28.56999999999999</v>
+        <v>28.54499999999999</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -6768,28 +6806,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C183" t="n">
         <v>29.5</v>
       </c>
-      <c r="C183" t="n">
-        <v>29.8</v>
-      </c>
       <c r="D183" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E183" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F183" t="n">
-        <v>3640.493</v>
+        <v>371303.7116</v>
       </c>
       <c r="G183" t="n">
-        <v>28.59999999999999</v>
+        <v>28.56999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -6803,22 +6841,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="C184" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="D184" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="E184" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F184" t="n">
-        <v>10</v>
+        <v>3640.493</v>
       </c>
       <c r="G184" t="n">
-        <v>28.62499999999999</v>
+        <v>28.59999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6876,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="C185" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="D185" t="n">
         <v>29.6</v>
       </c>
       <c r="E185" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="F185" t="n">
-        <v>30321.1661</v>
+        <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>28.64666666666666</v>
+        <v>28.62499999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6911,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C186" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="D186" t="n">
         <v>29.6</v>
       </c>
       <c r="E186" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F186" t="n">
-        <v>252947.3175</v>
+        <v>30321.1661</v>
       </c>
       <c r="G186" t="n">
-        <v>28.67166666666666</v>
+        <v>28.64666666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6949,19 @@
         <v>29.5</v>
       </c>
       <c r="C187" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="D187" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E187" t="n">
         <v>29.5</v>
       </c>
       <c r="F187" t="n">
-        <v>1451</v>
+        <v>252947.3175</v>
       </c>
       <c r="G187" t="n">
-        <v>28.695</v>
+        <v>28.67166666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,10 +6993,10 @@
         <v>29.5</v>
       </c>
       <c r="F188" t="n">
-        <v>7514</v>
+        <v>1451</v>
       </c>
       <c r="G188" t="n">
-        <v>28.72333333333333</v>
+        <v>28.695</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,7 +7016,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="C189" t="n">
         <v>29.5</v>
@@ -6987,13 +7025,13 @@
         <v>29.5</v>
       </c>
       <c r="E189" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="F189" t="n">
-        <v>2412</v>
+        <v>7514</v>
       </c>
       <c r="G189" t="n">
-        <v>28.75166666666667</v>
+        <v>28.72333333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7016,19 +7054,19 @@
         <v>29.3</v>
       </c>
       <c r="C190" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D190" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="E190" t="n">
         <v>29.3</v>
       </c>
       <c r="F190" t="n">
-        <v>3604.8016</v>
+        <v>2412</v>
       </c>
       <c r="G190" t="n">
-        <v>28.77333333333333</v>
+        <v>28.75166666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,7 +7086,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C191" t="n">
         <v>29.3</v>
@@ -7057,13 +7095,13 @@
         <v>29.3</v>
       </c>
       <c r="E191" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F191" t="n">
-        <v>4459.2805</v>
+        <v>3604.8016</v>
       </c>
       <c r="G191" t="n">
-        <v>28.795</v>
+        <v>28.77333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,7 +7121,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C192" t="n">
         <v>29.3</v>
@@ -7092,13 +7130,13 @@
         <v>29.3</v>
       </c>
       <c r="E192" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F192" t="n">
-        <v>1984.0629</v>
+        <v>4459.2805</v>
       </c>
       <c r="G192" t="n">
-        <v>28.82333333333333</v>
+        <v>28.795</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7156,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C193" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D193" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E193" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F193" t="n">
-        <v>2369.8488</v>
+        <v>1984.0629</v>
       </c>
       <c r="G193" t="n">
-        <v>28.84333333333333</v>
+        <v>28.82333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7156,19 +7194,19 @@
         <v>29.2</v>
       </c>
       <c r="C194" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D194" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E194" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F194" t="n">
-        <v>28992.3286</v>
+        <v>2369.8488</v>
       </c>
       <c r="G194" t="n">
-        <v>28.86333333333333</v>
+        <v>28.84333333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7238,10 @@
         <v>29.1</v>
       </c>
       <c r="F195" t="n">
-        <v>22200.3146</v>
+        <v>28992.3286</v>
       </c>
       <c r="G195" t="n">
-        <v>28.88166666666666</v>
+        <v>28.86333333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7261,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C196" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="D196" t="n">
         <v>29.3</v>
       </c>
       <c r="E196" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F196" t="n">
-        <v>54328.5866</v>
+        <v>22200.3146</v>
       </c>
       <c r="G196" t="n">
-        <v>28.89333333333333</v>
+        <v>28.88166666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7296,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C197" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D197" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E197" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F197" t="n">
-        <v>22896.4228</v>
+        <v>54328.5866</v>
       </c>
       <c r="G197" t="n">
-        <v>28.90666666666666</v>
+        <v>28.89333333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7331,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C198" t="n">
         <v>29</v>
       </c>
       <c r="D198" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E198" t="n">
         <v>29</v>
       </c>
-      <c r="E198" t="n">
-        <v>28.8</v>
-      </c>
       <c r="F198" t="n">
-        <v>30233.3016</v>
+        <v>22896.4228</v>
       </c>
       <c r="G198" t="n">
-        <v>28.91833333333333</v>
+        <v>28.90666666666666</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7334,16 +7372,16 @@
         <v>29</v>
       </c>
       <c r="D199" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E199" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="F199" t="n">
-        <v>30324.5173</v>
+        <v>30233.3016</v>
       </c>
       <c r="G199" t="n">
-        <v>28.93166666666666</v>
+        <v>28.91833333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,7 +7404,7 @@
         <v>29</v>
       </c>
       <c r="C200" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D200" t="n">
         <v>29.1</v>
@@ -7375,10 +7413,10 @@
         <v>29</v>
       </c>
       <c r="F200" t="n">
-        <v>20010</v>
+        <v>30324.5173</v>
       </c>
       <c r="G200" t="n">
-        <v>28.945</v>
+        <v>28.93166666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,7 +7436,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C201" t="n">
         <v>29.1</v>
@@ -7407,13 +7445,13 @@
         <v>29.1</v>
       </c>
       <c r="E201" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F201" t="n">
-        <v>9006.4089</v>
+        <v>20010</v>
       </c>
       <c r="G201" t="n">
-        <v>28.95833333333333</v>
+        <v>28.945</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7471,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C202" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D202" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E202" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>9006.4089</v>
       </c>
       <c r="G202" t="n">
-        <v>28.975</v>
+        <v>28.95833333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7506,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C203" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D203" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E203" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F203" t="n">
-        <v>2147.1477</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>28.98999999999999</v>
+        <v>28.975</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7541,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C204" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="D204" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E204" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F204" t="n">
-        <v>237971.3175</v>
+        <v>2147.1477</v>
       </c>
       <c r="G204" t="n">
-        <v>28.99166666666666</v>
+        <v>28.98999999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7576,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C205" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D205" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E205" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="F205" t="n">
-        <v>3431</v>
+        <v>237971.3175</v>
       </c>
       <c r="G205" t="n">
-        <v>29.005</v>
+        <v>28.99166666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7576,19 +7614,19 @@
         <v>29.1</v>
       </c>
       <c r="C206" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D206" t="n">
         <v>29.1</v>
       </c>
       <c r="E206" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F206" t="n">
-        <v>36708.8878</v>
+        <v>3431</v>
       </c>
       <c r="G206" t="n">
-        <v>29.015</v>
+        <v>29.005</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7646,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C207" t="n">
         <v>28.9</v>
       </c>
       <c r="D207" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E207" t="n">
         <v>28.9</v>
       </c>
       <c r="F207" t="n">
-        <v>33722.4419</v>
+        <v>36708.8878</v>
       </c>
       <c r="G207" t="n">
-        <v>29.02166666666666</v>
+        <v>29.015</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7693,10 @@
         <v>28.9</v>
       </c>
       <c r="F208" t="n">
-        <v>1500.6018</v>
+        <v>33722.4419</v>
       </c>
       <c r="G208" t="n">
-        <v>29.03166666666667</v>
+        <v>29.02166666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7681,19 +7719,19 @@
         <v>28.9</v>
       </c>
       <c r="C209" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D209" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E209" t="n">
         <v>28.9</v>
       </c>
       <c r="F209" t="n">
-        <v>30419.5502</v>
+        <v>1500.6018</v>
       </c>
       <c r="G209" t="n">
-        <v>29.03833333333334</v>
+        <v>29.03166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7719,16 +7757,16 @@
         <v>29</v>
       </c>
       <c r="D210" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E210" t="n">
         <v>28.9</v>
       </c>
       <c r="F210" t="n">
-        <v>29221.602</v>
+        <v>30419.5502</v>
       </c>
       <c r="G210" t="n">
-        <v>29.04500000000001</v>
+        <v>29.03833333333334</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7786,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C211" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D211" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E211" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F211" t="n">
-        <v>38533.7216</v>
+        <v>29221.602</v>
       </c>
       <c r="G211" t="n">
-        <v>29.05333333333334</v>
+        <v>29.04500000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +7833,10 @@
         <v>29.1</v>
       </c>
       <c r="F212" t="n">
-        <v>16142.972</v>
+        <v>38533.7216</v>
       </c>
       <c r="G212" t="n">
-        <v>29.06166666666667</v>
+        <v>29.05333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +7868,10 @@
         <v>29.1</v>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>16142.972</v>
       </c>
       <c r="G213" t="n">
-        <v>29.07333333333333</v>
+        <v>29.06166666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7865,10 +7903,10 @@
         <v>29.1</v>
       </c>
       <c r="F214" t="n">
-        <v>5430</v>
+        <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>29.085</v>
+        <v>29.07333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7926,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C215" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D215" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E215" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F215" t="n">
-        <v>25800</v>
+        <v>5430</v>
       </c>
       <c r="G215" t="n">
-        <v>29.1</v>
+        <v>29.085</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7961,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="C216" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="D216" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E216" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="F216" t="n">
-        <v>10886.9896</v>
+        <v>25800</v>
       </c>
       <c r="G216" t="n">
-        <v>29.11666666666667</v>
+        <v>29.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7996,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C217" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D217" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E217" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F217" t="n">
-        <v>21972.9203</v>
+        <v>10886.9896</v>
       </c>
       <c r="G217" t="n">
-        <v>29.12833333333333</v>
+        <v>29.11666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +8031,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C218" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D218" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E218" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F218" t="n">
-        <v>10</v>
+        <v>21972.9203</v>
       </c>
       <c r="G218" t="n">
-        <v>29.14</v>
+        <v>29.12833333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8078,10 @@
         <v>29.2</v>
       </c>
       <c r="F219" t="n">
-        <v>97462.60219999999</v>
+        <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>29.15</v>
+        <v>29.14</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8066,19 +8104,19 @@
         <v>29.2</v>
       </c>
       <c r="C220" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D220" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E220" t="n">
         <v>29.2</v>
       </c>
       <c r="F220" t="n">
-        <v>50602.6381</v>
+        <v>97462.60219999999</v>
       </c>
       <c r="G220" t="n">
-        <v>29.16</v>
+        <v>29.15</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,7 +8136,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C221" t="n">
         <v>29.3</v>
@@ -8107,13 +8145,13 @@
         <v>29.3</v>
       </c>
       <c r="E221" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F221" t="n">
-        <v>68810</v>
+        <v>50602.6381</v>
       </c>
       <c r="G221" t="n">
-        <v>29.16833333333333</v>
+        <v>29.16</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,7 +8171,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="C222" t="n">
         <v>29.3</v>
@@ -8142,13 +8180,13 @@
         <v>29.3</v>
       </c>
       <c r="E222" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F222" t="n">
-        <v>1210</v>
+        <v>68810</v>
       </c>
       <c r="G222" t="n">
-        <v>29.17833333333333</v>
+        <v>29.16833333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8206,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C223" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D223" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E223" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F223" t="n">
-        <v>3799.4863</v>
+        <v>1210</v>
       </c>
       <c r="G223" t="n">
-        <v>29.18333333333333</v>
+        <v>29.17833333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8241,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C224" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D224" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E224" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F224" t="n">
-        <v>5993.2491</v>
+        <v>3799.4863</v>
       </c>
       <c r="G224" t="n">
-        <v>29.185</v>
+        <v>29.18333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8276,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C225" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D225" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E225" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="F225" t="n">
-        <v>429130.6548</v>
+        <v>5993.2491</v>
       </c>
       <c r="G225" t="n">
-        <v>29.18333333333333</v>
+        <v>29.185</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8311,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C226" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D226" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E226" t="n">
         <v>28.7</v>
       </c>
       <c r="F226" t="n">
-        <v>54931.1102</v>
+        <v>429130.6548</v>
       </c>
       <c r="G226" t="n">
-        <v>29.18666666666666</v>
+        <v>29.18333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8311,16 +8349,16 @@
         <v>28.8</v>
       </c>
       <c r="C227" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D227" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E227" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F227" t="n">
-        <v>4481.0385</v>
+        <v>54931.1102</v>
       </c>
       <c r="G227" t="n">
         <v>29.18666666666666</v>
@@ -8343,22 +8381,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C228" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D228" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E228" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="F228" t="n">
-        <v>17470</v>
+        <v>4481.0385</v>
       </c>
       <c r="G228" t="n">
-        <v>29.19</v>
+        <v>29.18666666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8416,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="C229" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D229" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E229" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="F229" t="n">
-        <v>4920.8971</v>
+        <v>17470</v>
       </c>
       <c r="G229" t="n">
-        <v>29.18666666666666</v>
+        <v>29.19</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,19 +8451,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C230" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D230" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E230" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F230" t="n">
-        <v>1434.306</v>
+        <v>4920.8971</v>
       </c>
       <c r="G230" t="n">
         <v>29.18666666666666</v>
@@ -8448,19 +8486,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C231" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D231" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E231" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F231" t="n">
-        <v>288311.0993</v>
+        <v>1434.306</v>
       </c>
       <c r="G231" t="n">
         <v>29.18666666666666</v>
@@ -8483,7 +8521,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C232" t="n">
         <v>29.1</v>
@@ -8492,10 +8530,10 @@
         <v>29.1</v>
       </c>
       <c r="E232" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F232" t="n">
-        <v>9242.2248</v>
+        <v>288311.0993</v>
       </c>
       <c r="G232" t="n">
         <v>29.18666666666666</v>
@@ -8518,22 +8556,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C233" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D233" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E233" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F233" t="n">
-        <v>1508.8036</v>
+        <v>9242.2248</v>
       </c>
       <c r="G233" t="n">
-        <v>29.18333333333333</v>
+        <v>29.18666666666666</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8591,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C234" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="D234" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F234" t="n">
-        <v>3591</v>
+        <v>1508.8036</v>
       </c>
       <c r="G234" t="n">
-        <v>29.17833333333333</v>
+        <v>29.18333333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8626,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C235" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D235" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E235" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F235" t="n">
-        <v>6682.2101</v>
+        <v>3591</v>
       </c>
       <c r="G235" t="n">
-        <v>29.17</v>
+        <v>29.17833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8626,19 +8664,19 @@
         <v>28.8</v>
       </c>
       <c r="C236" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D236" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E236" t="n">
         <v>28.8</v>
       </c>
       <c r="F236" t="n">
-        <v>121628.01</v>
+        <v>6682.2101</v>
       </c>
       <c r="G236" t="n">
-        <v>29.165</v>
+        <v>29.17</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8661,19 +8699,19 @@
         <v>28.8</v>
       </c>
       <c r="C237" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D237" t="n">
+        <v>29</v>
+      </c>
+      <c r="E237" t="n">
         <v>28.8</v>
       </c>
-      <c r="E237" t="n">
-        <v>28.7</v>
-      </c>
       <c r="F237" t="n">
-        <v>6682.2102</v>
+        <v>121628.01</v>
       </c>
       <c r="G237" t="n">
-        <v>29.155</v>
+        <v>29.165</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8731,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C238" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D238" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E238" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F238" t="n">
-        <v>1465.1137</v>
+        <v>6682.2102</v>
       </c>
       <c r="G238" t="n">
-        <v>29.14666666666666</v>
+        <v>29.155</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8766,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C239" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D239" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E239" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F239" t="n">
-        <v>10485</v>
+        <v>1465.1137</v>
       </c>
       <c r="G239" t="n">
-        <v>29.12666666666667</v>
+        <v>29.14666666666666</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8801,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C240" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D240" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E240" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>10485</v>
       </c>
       <c r="G240" t="n">
-        <v>29.11333333333333</v>
+        <v>29.12666666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8801,19 +8839,19 @@
         <v>28.8</v>
       </c>
       <c r="C241" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D241" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E241" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F241" t="n">
-        <v>177119.1111</v>
+        <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>29.09833333333334</v>
+        <v>29.11333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8836,19 +8874,19 @@
         <v>28.8</v>
       </c>
       <c r="C242" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D242" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E242" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F242" t="n">
-        <v>3538.3813</v>
+        <v>177119.1111</v>
       </c>
       <c r="G242" t="n">
-        <v>29.08333333333333</v>
+        <v>29.09833333333334</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8906,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C243" t="n">
         <v>28.6</v>
       </c>
-      <c r="C243" t="n">
-        <v>28.5</v>
-      </c>
       <c r="D243" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E243" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F243" t="n">
-        <v>21600.4816</v>
+        <v>3538.3813</v>
       </c>
       <c r="G243" t="n">
-        <v>29.06166666666667</v>
+        <v>29.08333333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8941,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C244" t="n">
         <v>28.5</v>
       </c>
-      <c r="C244" t="n">
-        <v>28.6</v>
-      </c>
       <c r="D244" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E244" t="n">
         <v>28.5</v>
       </c>
       <c r="F244" t="n">
-        <v>26266.6941</v>
+        <v>21600.4816</v>
       </c>
       <c r="G244" t="n">
-        <v>29.045</v>
+        <v>29.06166666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8941,19 +8979,19 @@
         <v>28.5</v>
       </c>
       <c r="C245" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D245" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E245" t="n">
         <v>28.5</v>
       </c>
       <c r="F245" t="n">
-        <v>177.3339</v>
+        <v>26266.6941</v>
       </c>
       <c r="G245" t="n">
-        <v>29.03</v>
+        <v>29.045</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +9011,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C246" t="n">
         <v>28.5</v>
       </c>
       <c r="D246" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E246" t="n">
         <v>28.5</v>
       </c>
       <c r="F246" t="n">
-        <v>550.5104</v>
+        <v>177.3339</v>
       </c>
       <c r="G246" t="n">
-        <v>29.01166666666667</v>
+        <v>29.03</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9046,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="C247" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D247" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="E247" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="F247" t="n">
-        <v>843.5386</v>
+        <v>550.5104</v>
       </c>
       <c r="G247" t="n">
-        <v>28.99333333333334</v>
+        <v>29.01166666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9046,19 +9084,19 @@
         <v>28.4</v>
       </c>
       <c r="C248" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="D248" t="n">
         <v>28.4</v>
       </c>
       <c r="E248" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="F248" t="n">
-        <v>2996.3417</v>
+        <v>843.5386</v>
       </c>
       <c r="G248" t="n">
-        <v>28.97166666666667</v>
+        <v>28.99333333333334</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9081,19 +9119,19 @@
         <v>28.4</v>
       </c>
       <c r="C249" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="D249" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E249" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="F249" t="n">
-        <v>88199.0701</v>
+        <v>2996.3417</v>
       </c>
       <c r="G249" t="n">
-        <v>28.955</v>
+        <v>28.97166666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9151,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="C250" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D250" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E250" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F250" t="n">
-        <v>10</v>
+        <v>88199.0701</v>
       </c>
       <c r="G250" t="n">
-        <v>28.94333333333334</v>
+        <v>28.955</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9186,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="C251" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D251" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E251" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="F251" t="n">
-        <v>32243.7932</v>
+        <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>28.92666666666667</v>
+        <v>28.94333333333334</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,22 +9221,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C252" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D252" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E252" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F252" t="n">
-        <v>45884.7374</v>
+        <v>32243.7932</v>
       </c>
       <c r="G252" t="n">
-        <v>28.91166666666667</v>
+        <v>28.92666666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9221,7 +9259,7 @@
         <v>28.4</v>
       </c>
       <c r="C253" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D253" t="n">
         <v>28.5</v>
@@ -9230,10 +9268,10 @@
         <v>28.4</v>
       </c>
       <c r="F253" t="n">
-        <v>12692</v>
+        <v>45884.7374</v>
       </c>
       <c r="G253" t="n">
-        <v>28.9</v>
+        <v>28.91166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9253,7 +9291,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C254" t="n">
         <v>28.5</v>
@@ -9262,13 +9300,13 @@
         <v>28.5</v>
       </c>
       <c r="E254" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F254" t="n">
-        <v>90967.0701</v>
+        <v>12692</v>
       </c>
       <c r="G254" t="n">
-        <v>28.88666666666667</v>
+        <v>28.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9300,10 +9338,10 @@
         <v>28.3</v>
       </c>
       <c r="F255" t="n">
-        <v>29525.3557</v>
+        <v>90967.0701</v>
       </c>
       <c r="G255" t="n">
-        <v>28.87333333333334</v>
+        <v>28.88666666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9361,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C256" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D256" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E256" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F256" t="n">
-        <v>2056</v>
+        <v>29525.3557</v>
       </c>
       <c r="G256" t="n">
-        <v>28.86500000000001</v>
+        <v>28.87333333333334</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9361,19 +9399,19 @@
         <v>28.4</v>
       </c>
       <c r="C257" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D257" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E257" t="n">
         <v>28.4</v>
       </c>
       <c r="F257" t="n">
-        <v>4840.1527</v>
+        <v>2056</v>
       </c>
       <c r="G257" t="n">
-        <v>28.85666666666667</v>
+        <v>28.86500000000001</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,10 +9431,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C258" t="n">
         <v>28.5</v>
-      </c>
-      <c r="C258" t="n">
-        <v>28.4</v>
       </c>
       <c r="D258" t="n">
         <v>28.5</v>
@@ -9405,10 +9443,10 @@
         <v>28.4</v>
       </c>
       <c r="F258" t="n">
-        <v>140177.4781</v>
+        <v>4840.1527</v>
       </c>
       <c r="G258" t="n">
-        <v>28.84666666666667</v>
+        <v>28.85666666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9466,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C259" t="n">
         <v>28.4</v>
       </c>
       <c r="D259" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E259" t="n">
         <v>28.4</v>
       </c>
       <c r="F259" t="n">
-        <v>64426</v>
+        <v>140177.4781</v>
       </c>
       <c r="G259" t="n">
-        <v>28.83666666666668</v>
+        <v>28.84666666666667</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9475,10 +9513,10 @@
         <v>28.4</v>
       </c>
       <c r="F260" t="n">
-        <v>821</v>
+        <v>64426</v>
       </c>
       <c r="G260" t="n">
-        <v>28.82500000000001</v>
+        <v>28.83666666666668</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9510,10 +9548,10 @@
         <v>28.4</v>
       </c>
       <c r="F261" t="n">
-        <v>226.9007</v>
+        <v>821</v>
       </c>
       <c r="G261" t="n">
-        <v>28.81333333333335</v>
+        <v>28.82500000000001</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9536,19 +9574,19 @@
         <v>28.4</v>
       </c>
       <c r="C262" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="D262" t="n">
         <v>28.4</v>
       </c>
       <c r="E262" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="F262" t="n">
-        <v>24895.3146</v>
+        <v>226.9007</v>
       </c>
       <c r="G262" t="n">
-        <v>28.79666666666668</v>
+        <v>28.81333333333335</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,22 +9606,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C263" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="D263" t="n">
         <v>28.4</v>
       </c>
       <c r="E263" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F263" t="n">
-        <v>80176</v>
+        <v>24895.3146</v>
       </c>
       <c r="G263" t="n">
-        <v>28.78500000000002</v>
+        <v>28.79666666666668</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9606,19 +9644,19 @@
         <v>28.3</v>
       </c>
       <c r="C264" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D264" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E264" t="n">
         <v>28.3</v>
       </c>
       <c r="F264" t="n">
-        <v>7727.1687</v>
+        <v>80176</v>
       </c>
       <c r="G264" t="n">
-        <v>28.77833333333335</v>
+        <v>28.78500000000002</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9641,19 +9679,19 @@
         <v>28.3</v>
       </c>
       <c r="C265" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D265" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E265" t="n">
         <v>28.3</v>
       </c>
       <c r="F265" t="n">
-        <v>40579.58</v>
+        <v>7727.1687</v>
       </c>
       <c r="G265" t="n">
-        <v>28.76666666666669</v>
+        <v>28.77833333333335</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,10 +9711,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C266" t="n">
         <v>28.4</v>
-      </c>
-      <c r="C266" t="n">
-        <v>28.3</v>
       </c>
       <c r="D266" t="n">
         <v>28.4</v>
@@ -9685,10 +9723,10 @@
         <v>28.3</v>
       </c>
       <c r="F266" t="n">
-        <v>57106.0813</v>
+        <v>40579.58</v>
       </c>
       <c r="G266" t="n">
-        <v>28.75666666666668</v>
+        <v>28.76666666666669</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9711,19 +9749,19 @@
         <v>28.4</v>
       </c>
       <c r="C267" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D267" t="n">
         <v>28.4</v>
       </c>
       <c r="E267" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F267" t="n">
-        <v>53030.9483</v>
+        <v>57106.0813</v>
       </c>
       <c r="G267" t="n">
-        <v>28.74833333333335</v>
+        <v>28.75666666666668</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9781,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C268" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D268" t="n">
         <v>28.4</v>
       </c>
       <c r="E268" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F268" t="n">
-        <v>23860</v>
+        <v>53030.9483</v>
       </c>
       <c r="G268" t="n">
-        <v>28.73833333333335</v>
+        <v>28.74833333333335</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9816,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C269" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D269" t="n">
         <v>28.4</v>
       </c>
       <c r="E269" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F269" t="n">
-        <v>25528.6851</v>
+        <v>23860</v>
       </c>
       <c r="G269" t="n">
-        <v>28.72833333333335</v>
+        <v>28.73833333333335</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9822,13 +9860,13 @@
         <v>28.4</v>
       </c>
       <c r="E270" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F270" t="n">
-        <v>30035.7879</v>
+        <v>25528.6851</v>
       </c>
       <c r="G270" t="n">
-        <v>28.71833333333335</v>
+        <v>28.72833333333335</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9860,10 +9898,10 @@
         <v>28.3</v>
       </c>
       <c r="F271" t="n">
-        <v>11538.8478</v>
+        <v>30035.7879</v>
       </c>
       <c r="G271" t="n">
-        <v>28.70666666666669</v>
+        <v>28.71833333333335</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,7 +9921,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C272" t="n">
         <v>28.4</v>
@@ -9895,10 +9933,10 @@
         <v>28.3</v>
       </c>
       <c r="F272" t="n">
-        <v>271991.7359</v>
+        <v>11538.8478</v>
       </c>
       <c r="G272" t="n">
-        <v>28.69500000000003</v>
+        <v>28.70666666666669</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,7 +9956,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C273" t="n">
         <v>28.4</v>
@@ -9927,13 +9965,13 @@
         <v>28.4</v>
       </c>
       <c r="E273" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F273" t="n">
-        <v>26086.6188</v>
+        <v>271991.7359</v>
       </c>
       <c r="G273" t="n">
-        <v>28.68333333333336</v>
+        <v>28.69500000000003</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9991,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C274" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D274" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E274" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="F274" t="n">
-        <v>20812</v>
+        <v>26086.6188</v>
       </c>
       <c r="G274" t="n">
-        <v>28.67333333333336</v>
+        <v>28.68333333333336</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +10026,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="C275" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D275" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E275" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F275" t="n">
-        <v>100</v>
+        <v>20812</v>
       </c>
       <c r="G275" t="n">
-        <v>28.66500000000003</v>
+        <v>28.67333333333336</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10023,22 +10061,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="C276" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D276" t="n">
         <v>28.7</v>
       </c>
       <c r="E276" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F276" t="n">
-        <v>24950.04412447552</v>
+        <v>100</v>
       </c>
       <c r="G276" t="n">
-        <v>28.66000000000003</v>
+        <v>28.66500000000003</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10096,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="C277" t="n">
         <v>28.6</v>
       </c>
       <c r="D277" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E277" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="F277" t="n">
-        <v>30342.902</v>
+        <v>24950.04412447552</v>
       </c>
       <c r="G277" t="n">
-        <v>28.65166666666669</v>
+        <v>28.66000000000003</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10105,10 +10143,10 @@
         <v>28.6</v>
       </c>
       <c r="F278" t="n">
-        <v>2066</v>
+        <v>30342.902</v>
       </c>
       <c r="G278" t="n">
-        <v>28.64166666666669</v>
+        <v>28.65166666666669</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10140,10 +10178,10 @@
         <v>28.6</v>
       </c>
       <c r="F279" t="n">
-        <v>14865.2797</v>
+        <v>2066</v>
       </c>
       <c r="G279" t="n">
-        <v>28.63166666666669</v>
+        <v>28.64166666666669</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10201,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C280" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D280" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E280" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F280" t="n">
-        <v>10</v>
+        <v>14865.2797</v>
       </c>
       <c r="G280" t="n">
-        <v>28.61833333333335</v>
+        <v>28.63166666666669</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10236,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C281" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D281" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E281" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F281" t="n">
         <v>10</v>
       </c>
       <c r="G281" t="n">
-        <v>28.60666666666669</v>
+        <v>28.61833333333335</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10271,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C282" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D282" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E282" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F282" t="n">
         <v>10</v>
       </c>
       <c r="G282" t="n">
-        <v>28.59333333333336</v>
+        <v>28.60666666666669</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,22 +10306,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C283" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D283" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E283" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F283" t="n">
         <v>10</v>
       </c>
       <c r="G283" t="n">
-        <v>28.58333333333335</v>
+        <v>28.59333333333336</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10315,10 +10353,10 @@
         <v>28.6</v>
       </c>
       <c r="F284" t="n">
-        <v>14070.1678</v>
+        <v>10</v>
       </c>
       <c r="G284" t="n">
-        <v>28.57666666666669</v>
+        <v>28.58333333333335</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10341,16 +10379,16 @@
         <v>28.6</v>
       </c>
       <c r="C285" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D285" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E285" t="n">
         <v>28.6</v>
       </c>
       <c r="F285" t="n">
-        <v>87133.25950174216</v>
+        <v>14070.1678</v>
       </c>
       <c r="G285" t="n">
         <v>28.57666666666669</v>
@@ -10373,22 +10411,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C286" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D286" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="E286" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F286" t="n">
-        <v>8700</v>
+        <v>87133.25950174216</v>
       </c>
       <c r="G286" t="n">
-        <v>28.56833333333335</v>
+        <v>28.57666666666669</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10408,22 +10446,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C287" t="n">
         <v>28.5</v>
       </c>
       <c r="D287" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E287" t="n">
         <v>28.5</v>
       </c>
       <c r="F287" t="n">
-        <v>54468</v>
+        <v>8700</v>
       </c>
       <c r="G287" t="n">
-        <v>28.56333333333335</v>
+        <v>28.56833333333335</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10443,22 +10481,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C288" t="n">
         <v>28.5</v>
       </c>
       <c r="D288" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E288" t="n">
         <v>28.5</v>
       </c>
       <c r="F288" t="n">
-        <v>17362.2562</v>
+        <v>54468</v>
       </c>
       <c r="G288" t="n">
-        <v>28.55500000000002</v>
+        <v>28.56333333333335</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10490,10 +10528,10 @@
         <v>28.5</v>
       </c>
       <c r="F289" t="n">
-        <v>1230</v>
+        <v>17362.2562</v>
       </c>
       <c r="G289" t="n">
-        <v>28.55166666666668</v>
+        <v>28.55500000000002</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10513,22 +10551,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C290" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D290" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E290" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F290" t="n">
-        <v>26155.2031</v>
+        <v>1230</v>
       </c>
       <c r="G290" t="n">
-        <v>28.54166666666668</v>
+        <v>28.55166666666668</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10560,10 +10598,10 @@
         <v>28.3</v>
       </c>
       <c r="F291" t="n">
-        <v>28177</v>
+        <v>26155.2031</v>
       </c>
       <c r="G291" t="n">
-        <v>28.52833333333335</v>
+        <v>28.54166666666668</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10586,19 +10624,19 @@
         <v>28.3</v>
       </c>
       <c r="C292" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D292" t="n">
         <v>28.3</v>
       </c>
       <c r="E292" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F292" t="n">
-        <v>109828.9387</v>
+        <v>28177</v>
       </c>
       <c r="G292" t="n">
-        <v>28.51333333333335</v>
+        <v>28.52833333333335</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10618,22 +10656,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C293" t="n">
         <v>28.2</v>
       </c>
-      <c r="C293" t="n">
-        <v>28.4</v>
-      </c>
       <c r="D293" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E293" t="n">
         <v>28.2</v>
       </c>
       <c r="F293" t="n">
-        <v>131252.9964</v>
+        <v>109828.9387</v>
       </c>
       <c r="G293" t="n">
-        <v>28.50333333333335</v>
+        <v>28.51333333333335</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10653,22 +10691,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="C294" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="D294" t="n">
         <v>28.5</v>
       </c>
       <c r="E294" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="F294" t="n">
-        <v>34975.832</v>
+        <v>131252.9964</v>
       </c>
       <c r="G294" t="n">
-        <v>28.49666666666668</v>
+        <v>28.50333333333335</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10691,19 +10729,19 @@
         <v>28.5</v>
       </c>
       <c r="C295" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D295" t="n">
         <v>28.5</v>
       </c>
       <c r="E295" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="F295" t="n">
-        <v>49213.4849</v>
+        <v>34975.832</v>
       </c>
       <c r="G295" t="n">
-        <v>28.48833333333335</v>
+        <v>28.49666666666668</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10723,22 +10761,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C296" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D296" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E296" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F296" t="n">
-        <v>70537.4268</v>
+        <v>49213.4849</v>
       </c>
       <c r="G296" t="n">
-        <v>28.47500000000002</v>
+        <v>28.48833333333335</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10758,22 +10796,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="C297" t="n">
         <v>28.2</v>
       </c>
       <c r="D297" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="E297" t="n">
         <v>28.2</v>
       </c>
       <c r="F297" t="n">
-        <v>147720.0243</v>
+        <v>70537.4268</v>
       </c>
       <c r="G297" t="n">
-        <v>28.46666666666669</v>
+        <v>28.47500000000002</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10793,22 +10831,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C298" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D298" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E298" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F298" t="n">
-        <v>9060</v>
+        <v>147720.0243</v>
       </c>
       <c r="G298" t="n">
-        <v>28.45666666666668</v>
+        <v>28.46666666666669</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10828,22 +10866,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="C299" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D299" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E299" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F299" t="n">
-        <v>825.6786</v>
+        <v>9060</v>
       </c>
       <c r="G299" t="n">
-        <v>28.44833333333335</v>
+        <v>28.45666666666668</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10863,22 +10901,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="C300" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="D300" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="E300" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="F300" t="n">
-        <v>19325.1382</v>
+        <v>825.6786</v>
       </c>
       <c r="G300" t="n">
-        <v>28.43666666666668</v>
+        <v>28.44833333333335</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10898,22 +10936,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C301" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="D301" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="E301" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="F301" t="n">
-        <v>30616.8813</v>
+        <v>19325.1382</v>
       </c>
       <c r="G301" t="n">
-        <v>28.42833333333335</v>
+        <v>28.43666666666668</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10933,22 +10971,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C302" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="D302" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E302" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="F302" t="n">
-        <v>41422.2699</v>
+        <v>30616.8813</v>
       </c>
       <c r="G302" t="n">
-        <v>28.41833333333335</v>
+        <v>28.42833333333335</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10980,10 +11018,10 @@
         <v>28</v>
       </c>
       <c r="F303" t="n">
-        <v>58901</v>
+        <v>41422.2699</v>
       </c>
       <c r="G303" t="n">
-        <v>28.41000000000002</v>
+        <v>28.41833333333335</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11003,22 +11041,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C304" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="D304" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="E304" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F304" t="n">
-        <v>47261.6089</v>
+        <v>58901</v>
       </c>
       <c r="G304" t="n">
-        <v>28.39833333333335</v>
+        <v>28.41000000000002</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11038,22 +11076,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C305" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D305" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E305" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F305" t="n">
-        <v>23200</v>
+        <v>47261.6089</v>
       </c>
       <c r="G305" t="n">
-        <v>28.38500000000002</v>
+        <v>28.39833333333335</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11073,22 +11111,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C306" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D306" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E306" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F306" t="n">
-        <v>172526.2262</v>
+        <v>23200</v>
       </c>
       <c r="G306" t="n">
-        <v>28.36833333333335</v>
+        <v>28.38500000000002</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11108,22 +11146,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="C307" t="n">
         <v>27.5</v>
       </c>
       <c r="D307" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="E307" t="n">
         <v>27.5</v>
       </c>
       <c r="F307" t="n">
-        <v>201929.3449</v>
+        <v>172526.2262</v>
       </c>
       <c r="G307" t="n">
-        <v>28.35333333333335</v>
+        <v>28.36833333333335</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11155,10 +11193,10 @@
         <v>27.5</v>
       </c>
       <c r="F308" t="n">
-        <v>118163.3817</v>
+        <v>201929.3449</v>
       </c>
       <c r="G308" t="n">
-        <v>28.34166666666669</v>
+        <v>28.35333333333335</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11181,19 +11219,19 @@
         <v>27.5</v>
       </c>
       <c r="C309" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D309" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E309" t="n">
         <v>27.5</v>
       </c>
       <c r="F309" t="n">
-        <v>38484.8619</v>
+        <v>118163.3817</v>
       </c>
       <c r="G309" t="n">
-        <v>28.32833333333335</v>
+        <v>28.34166666666669</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11216,19 +11254,19 @@
         <v>27.5</v>
       </c>
       <c r="C310" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="D310" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="E310" t="n">
         <v>27.5</v>
       </c>
       <c r="F310" t="n">
-        <v>6692.3538</v>
+        <v>38484.8619</v>
       </c>
       <c r="G310" t="n">
-        <v>28.31000000000002</v>
+        <v>28.32833333333335</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11248,22 +11286,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C311" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D311" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E311" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F311" t="n">
-        <v>16409.5505</v>
+        <v>6692.3538</v>
       </c>
       <c r="G311" t="n">
-        <v>28.29333333333335</v>
+        <v>28.31000000000002</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11283,22 +11321,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C312" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="D312" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="E312" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="F312" t="n">
-        <v>7129.8423</v>
+        <v>16409.5505</v>
       </c>
       <c r="G312" t="n">
-        <v>28.27833333333335</v>
+        <v>28.29333333333335</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11318,22 +11356,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C313" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D313" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E313" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F313" t="n">
-        <v>105598.3695217391</v>
+        <v>7129.8423</v>
       </c>
       <c r="G313" t="n">
-        <v>28.26333333333335</v>
+        <v>28.27833333333335</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11365,10 +11403,10 @@
         <v>27.6</v>
       </c>
       <c r="F314" t="n">
-        <v>1600.0842</v>
+        <v>105598.3695217391</v>
       </c>
       <c r="G314" t="n">
-        <v>28.24833333333335</v>
+        <v>28.26333333333335</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11400,10 +11438,10 @@
         <v>27.6</v>
       </c>
       <c r="F315" t="n">
-        <v>20</v>
+        <v>1600.0842</v>
       </c>
       <c r="G315" t="n">
-        <v>28.23333333333335</v>
+        <v>28.24833333333335</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11423,22 +11461,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C316" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D316" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E316" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F316" t="n">
-        <v>108488.9454</v>
+        <v>20</v>
       </c>
       <c r="G316" t="n">
-        <v>28.21666666666668</v>
+        <v>28.23333333333335</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11458,22 +11496,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C317" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D317" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E317" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F317" t="n">
-        <v>11</v>
+        <v>108488.9454</v>
       </c>
       <c r="G317" t="n">
-        <v>28.20166666666668</v>
+        <v>28.21666666666668</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11493,22 +11531,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C318" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D318" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E318" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F318" t="n">
-        <v>321731.3654</v>
+        <v>11</v>
       </c>
       <c r="G318" t="n">
-        <v>28.18333333333334</v>
+        <v>28.20166666666668</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11528,22 +11566,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C319" t="n">
         <v>27.3</v>
       </c>
       <c r="D319" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E319" t="n">
         <v>27.3</v>
       </c>
       <c r="F319" t="n">
-        <v>52064.8729</v>
+        <v>321731.3654</v>
       </c>
       <c r="G319" t="n">
-        <v>28.16500000000001</v>
+        <v>28.18333333333334</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11575,10 +11613,10 @@
         <v>27.3</v>
       </c>
       <c r="F320" t="n">
-        <v>29271.3573</v>
+        <v>52064.8729</v>
       </c>
       <c r="G320" t="n">
-        <v>28.14666666666667</v>
+        <v>28.16500000000001</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11598,22 +11636,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C321" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D321" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E321" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F321" t="n">
-        <v>3108.8876</v>
+        <v>29271.3573</v>
       </c>
       <c r="G321" t="n">
-        <v>28.12666666666667</v>
+        <v>28.14666666666667</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11633,22 +11671,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="C322" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D322" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E322" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F322" t="n">
-        <v>100</v>
+        <v>3108.8876</v>
       </c>
       <c r="G322" t="n">
-        <v>28.11500000000001</v>
+        <v>28.12666666666667</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11668,22 +11706,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C323" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="D323" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="E323" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F323" t="n">
-        <v>94714.3689</v>
+        <v>100</v>
       </c>
       <c r="G323" t="n">
-        <v>28.09500000000001</v>
+        <v>28.11500000000001</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11703,22 +11741,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="C324" t="n">
         <v>27.2</v>
       </c>
       <c r="D324" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E324" t="n">
         <v>27.2</v>
       </c>
-      <c r="E324" t="n">
-        <v>27.1</v>
-      </c>
       <c r="F324" t="n">
-        <v>117384.8388</v>
+        <v>94714.3689</v>
       </c>
       <c r="G324" t="n">
-        <v>28.07666666666667</v>
+        <v>28.09500000000001</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11738,7 +11776,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C325" t="n">
         <v>27.2</v>
@@ -11747,13 +11785,13 @@
         <v>27.2</v>
       </c>
       <c r="E325" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F325" t="n">
-        <v>74023.145</v>
+        <v>117384.8388</v>
       </c>
       <c r="G325" t="n">
-        <v>28.05666666666667</v>
+        <v>28.07666666666667</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11773,22 +11811,22 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="C326" t="n">
         <v>27.2</v>
       </c>
       <c r="D326" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E326" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F326" t="n">
-        <v>9655.394200000001</v>
+        <v>74023.145</v>
       </c>
       <c r="G326" t="n">
-        <v>28.03833333333334</v>
+        <v>28.05666666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11808,22 +11846,22 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="C327" t="n">
         <v>27.2</v>
       </c>
       <c r="D327" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E327" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F327" t="n">
-        <v>1331.0398</v>
+        <v>9655.394200000001</v>
       </c>
       <c r="G327" t="n">
-        <v>28.01833333333334</v>
+        <v>28.03833333333334</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -11846,19 +11884,19 @@
         <v>27.2</v>
       </c>
       <c r="C328" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D328" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E328" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="F328" t="n">
-        <v>59375.9438</v>
+        <v>1331.0398</v>
       </c>
       <c r="G328" t="n">
-        <v>28.00166666666667</v>
+        <v>28.01833333333334</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -11881,19 +11919,19 @@
         <v>27.2</v>
       </c>
       <c r="C329" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D329" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E329" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="F329" t="n">
-        <v>2485.2269</v>
+        <v>59375.9438</v>
       </c>
       <c r="G329" t="n">
-        <v>27.98166666666667</v>
+        <v>28.00166666666667</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -11913,34 +11951,34 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D330" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2485.2269</v>
+      </c>
+      <c r="G330" t="n">
+        <v>27.98166666666667</v>
+      </c>
+      <c r="H330" t="n">
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
         <v>27.3</v>
       </c>
-      <c r="C330" t="n">
+      <c r="K330" t="n">
         <v>27.3</v>
-      </c>
-      <c r="D330" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E330" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F330" t="n">
-        <v>250</v>
-      </c>
-      <c r="G330" t="n">
-        <v>27.96333333333333</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K330" t="n">
-        <v>27.2</v>
       </c>
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
@@ -11964,10 +12002,10 @@
         <v>27.3</v>
       </c>
       <c r="F331" t="n">
-        <v>6911.0256</v>
+        <v>250</v>
       </c>
       <c r="G331" t="n">
-        <v>27.945</v>
+        <v>27.96333333333333</v>
       </c>
       <c r="H331" t="n">
         <v>1</v>
@@ -11976,10 +12014,10 @@
         <v>0</v>
       </c>
       <c r="J331" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="K331" t="n">
         <v>27.3</v>
-      </c>
-      <c r="K331" t="n">
-        <v>27.2</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -11995,22 +12033,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="C332" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="D332" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="E332" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="F332" t="n">
-        <v>117649.3392</v>
+        <v>6911.0256</v>
       </c>
       <c r="G332" t="n">
-        <v>27.925</v>
+        <v>27.945</v>
       </c>
       <c r="H332" t="n">
         <v>1</v>
@@ -12022,7 +12060,7 @@
         <v>27.3</v>
       </c>
       <c r="K332" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12038,34 +12076,34 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C333" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D333" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E333" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F333" t="n">
+        <v>117649.3392</v>
+      </c>
+      <c r="G333" t="n">
+        <v>27.925</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
         <v>27.3</v>
       </c>
-      <c r="C333" t="n">
+      <c r="K333" t="n">
         <v>27.3</v>
-      </c>
-      <c r="D333" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="E333" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F333" t="n">
-        <v>137376</v>
-      </c>
-      <c r="G333" t="n">
-        <v>27.90666666666666</v>
-      </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="K333" t="n">
-        <v>27.2</v>
       </c>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
@@ -12089,22 +12127,20 @@
         <v>27.3</v>
       </c>
       <c r="F334" t="n">
-        <v>37516.5004</v>
+        <v>137376</v>
       </c>
       <c r="G334" t="n">
-        <v>27.88666666666666</v>
+        <v>27.90666666666666</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
         <v>27.3</v>
-      </c>
-      <c r="K334" t="n">
-        <v>27.2</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12132,10 +12168,10 @@
         <v>27.3</v>
       </c>
       <c r="F335" t="n">
-        <v>55708.4996</v>
+        <v>37516.5004</v>
       </c>
       <c r="G335" t="n">
-        <v>27.86333333333333</v>
+        <v>27.88666666666666</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12145,7 +12181,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12161,22 +12197,22 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C336" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D336" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E336" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F336" t="n">
-        <v>100000</v>
+        <v>55708.4996</v>
       </c>
       <c r="G336" t="n">
-        <v>27.84666666666666</v>
+        <v>27.86333333333333</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12196,7 +12232,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C337" t="n">
         <v>27.6</v>
@@ -12205,13 +12241,13 @@
         <v>27.6</v>
       </c>
       <c r="E337" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F337" t="n">
-        <v>8105.1449</v>
+        <v>100000</v>
       </c>
       <c r="G337" t="n">
-        <v>27.82999999999999</v>
+        <v>27.84666666666666</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12243,10 +12279,10 @@
         <v>27.6</v>
       </c>
       <c r="F338" t="n">
-        <v>10</v>
+        <v>8105.1449</v>
       </c>
       <c r="G338" t="n">
-        <v>27.81333333333333</v>
+        <v>27.82999999999999</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12266,22 +12302,22 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C339" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D339" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E339" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F339" t="n">
-        <v>7681.3489</v>
+        <v>10</v>
       </c>
       <c r="G339" t="n">
-        <v>27.79333333333333</v>
+        <v>27.81333333333333</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12304,19 +12340,19 @@
         <v>27.5</v>
       </c>
       <c r="C340" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D340" t="n">
         <v>27.5</v>
       </c>
       <c r="E340" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F340" t="n">
-        <v>30142.6058</v>
+        <v>7681.3489</v>
       </c>
       <c r="G340" t="n">
-        <v>27.77666666666666</v>
+        <v>27.79333333333333</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12336,22 +12372,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="C341" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="D341" t="n">
-        <v>27.9</v>
+        <v>27.5</v>
       </c>
       <c r="E341" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="F341" t="n">
-        <v>60123.0343</v>
+        <v>30142.6058</v>
       </c>
       <c r="G341" t="n">
-        <v>27.765</v>
+        <v>27.77666666666666</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12371,22 +12407,22 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C342" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D342" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="E342" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F342" t="n">
-        <v>45514.9048</v>
+        <v>60123.0343</v>
       </c>
       <c r="G342" t="n">
-        <v>27.75333333333333</v>
+        <v>27.765</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12409,19 +12445,19 @@
         <v>27.8</v>
       </c>
       <c r="C343" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D343" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="E343" t="n">
         <v>27.8</v>
       </c>
       <c r="F343" t="n">
-        <v>29482.1688</v>
+        <v>45514.9048</v>
       </c>
       <c r="G343" t="n">
-        <v>27.74166666666667</v>
+        <v>27.75333333333333</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12441,7 +12477,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C344" t="n">
         <v>27.9</v>
@@ -12450,13 +12486,13 @@
         <v>27.9</v>
       </c>
       <c r="E344" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F344" t="n">
-        <v>50912</v>
+        <v>29482.1688</v>
       </c>
       <c r="G344" t="n">
-        <v>27.73000000000001</v>
+        <v>27.74166666666667</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12488,10 +12524,10 @@
         <v>27.9</v>
       </c>
       <c r="F345" t="n">
-        <v>80253.8659</v>
+        <v>50912</v>
       </c>
       <c r="G345" t="n">
-        <v>27.71666666666668</v>
+        <v>27.73000000000001</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12523,10 +12559,10 @@
         <v>27.9</v>
       </c>
       <c r="F346" t="n">
-        <v>17576.0931</v>
+        <v>80253.8659</v>
       </c>
       <c r="G346" t="n">
-        <v>27.70666666666667</v>
+        <v>27.71666666666668</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12558,10 +12594,10 @@
         <v>27.9</v>
       </c>
       <c r="F347" t="n">
-        <v>10</v>
+        <v>17576.0931</v>
       </c>
       <c r="G347" t="n">
-        <v>27.69666666666668</v>
+        <v>27.70666666666667</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12596,13 +12632,13 @@
         <v>10</v>
       </c>
       <c r="G348" t="n">
-        <v>27.68666666666668</v>
+        <v>27.69666666666668</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
@@ -12616,22 +12652,22 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="C349" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="D349" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="E349" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F349" t="n">
         <v>10</v>
       </c>
       <c r="G349" t="n">
-        <v>27.67333333333335</v>
+        <v>27.68666666666668</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12646,6 +12682,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C350" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D350" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E350" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F350" t="n">
+        <v>10</v>
+      </c>
+      <c r="G350" t="n">
+        <v>27.67333333333335</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-18 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>411351.5829</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>414484.6627</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>27.5</v>
@@ -523,7 +523,7 @@
         <v>414484.6627</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>27.6</v>
@@ -562,7 +562,7 @@
         <v>419384.6627</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>27.6</v>
@@ -601,7 +601,7 @@
         <v>419384.6627</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>27.7</v>
@@ -640,7 +640,7 @@
         <v>418035.5793</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>27.7</v>
@@ -679,7 +679,7 @@
         <v>418335.5793</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>27.5</v>
@@ -718,7 +718,7 @@
         <v>418335.5793</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>27.7</v>
@@ -757,7 +757,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>27.7</v>
@@ -796,11 +796,9 @@
         <v>437612.0463</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,7 +833,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>27.9</v>
@@ -874,7 +872,7 @@
         <v>437612.0463</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>27.9</v>
@@ -913,7 +911,7 @@
         <v>435798.1503</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>27.9</v>
@@ -952,7 +950,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>27.6</v>
@@ -991,7 +989,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>27.9</v>
@@ -1030,7 +1028,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>27.9</v>
@@ -1069,7 +1067,7 @@
         <v>441798.1503</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>27.9</v>
@@ -1108,11 +1106,9 @@
         <v>441798.1503</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1143,9 @@
         <v>440428.1503</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,11 +1180,9 @@
         <v>440428.1503</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,7 +1217,7 @@
         <v>567742.1036</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>27.7</v>
@@ -1264,9 +1256,11 @@
         <v>590526.5532000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1301,11 +1295,9 @@
         <v>579445.1555000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1340,7 +1332,7 @@
         <v>579445.1555000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>27.9</v>
@@ -1379,7 +1371,7 @@
         <v>583002.1954000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>27.9</v>
@@ -1418,11 +1410,9 @@
         <v>582337.1954000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1457,11 +1447,9 @@
         <v>798702.8893000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1496,11 +1484,9 @@
         <v>798702.8893000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1535,11 +1521,9 @@
         <v>1068950.6136</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1611,11 +1595,9 @@
         <v>1059146.5086</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1650,11 +1632,9 @@
         <v>1046541.2307</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1689,11 +1669,9 @@
         <v>1046541.2307</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1765,11 +1743,9 @@
         <v>1045812.928</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1804,11 +1780,9 @@
         <v>1045812.928</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1843,11 +1817,9 @@
         <v>1055678.6574</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1882,11 +1854,9 @@
         <v>1056764.6574</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2106,11 +2076,9 @@
         <v>1020882.6574</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2182,11 +2150,9 @@
         <v>1143656.566</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2221,11 +2187,9 @@
         <v>1131137.0366</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2260,11 +2224,9 @@
         <v>1122704.353</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2299,11 +2261,9 @@
         <v>1121870.9767</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2338,11 +2298,9 @@
         <v>1323120.8395</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2414,11 +2372,9 @@
         <v>1066465.9036</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2453,11 +2409,9 @@
         <v>1066465.9036</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2492,11 +2446,9 @@
         <v>1066465.9036</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2531,11 +2483,9 @@
         <v>1066465.9036</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2570,11 +2520,9 @@
         <v>971701.0294000003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2609,11 +2557,9 @@
         <v>976947.3716000003</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2685,11 +2631,9 @@
         <v>976221.3953000003</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2724,11 +2668,9 @@
         <v>935197.3121000003</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2763,11 +2705,9 @@
         <v>956097.3121000003</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2802,11 +2742,9 @@
         <v>956197.3121000003</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2841,11 +2779,9 @@
         <v>953924.3121000003</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2917,11 +2853,9 @@
         <v>935424.3121000003</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2956,11 +2890,9 @@
         <v>935424.3121000003</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2995,11 +2927,9 @@
         <v>920215.3121000003</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3034,11 +2964,9 @@
         <v>921112.2005000004</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3073,11 +3001,9 @@
         <v>920587.6059000004</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3112,11 +3038,9 @@
         <v>920468.2940000005</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3595,11 +3519,9 @@
         <v>892280.5788000005</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3671,11 +3593,9 @@
         <v>857273.4199000004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -4228,11 +4148,9 @@
         <v>862341.2637000004</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4304,11 +4222,9 @@
         <v>894041.2637000004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4343,11 +4259,9 @@
         <v>894041.2637000004</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4382,11 +4296,9 @@
         <v>894041.2637000004</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4458,11 +4370,9 @@
         <v>866926.1529000003</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4497,11 +4407,9 @@
         <v>889026.1529000003</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4536,11 +4444,9 @@
         <v>889026.1529000003</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4686,11 +4592,9 @@
         <v>890719.9601000004</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4725,7 +4629,7 @@
         <v>887626.8975000004</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>27.6</v>
@@ -4764,7 +4668,7 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>27.5</v>
@@ -4803,7 +4707,7 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>27.6</v>
@@ -4842,7 +4746,7 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>27.6</v>
@@ -4881,7 +4785,7 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>27.6</v>
@@ -4920,7 +4824,7 @@
         <v>890291.2195000005</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>27.6</v>
@@ -4959,7 +4863,7 @@
         <v>890291.2195000005</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>27.7</v>
@@ -4998,7 +4902,7 @@
         <v>890291.2195000005</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>27.7</v>
@@ -5037,7 +4941,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>27.7</v>
@@ -5076,7 +4980,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>27.6</v>
@@ -5115,7 +5019,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>27.6</v>
@@ -5154,7 +5058,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>27.6</v>
@@ -5193,7 +5097,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>27.6</v>
@@ -5232,7 +5136,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>27.6</v>
@@ -5271,7 +5175,7 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>27.6</v>
@@ -5310,7 +5214,7 @@
         <v>883835.2068000005</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>27.6</v>
@@ -5349,7 +5253,7 @@
         <v>969500.4518000005</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>27.5</v>
@@ -5388,7 +5292,7 @@
         <v>969500.4518000005</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>27.6</v>
@@ -5427,7 +5331,7 @@
         <v>969500.4518000005</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>27.6</v>
@@ -5466,7 +5370,7 @@
         <v>966619.4709000005</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>27.6</v>
@@ -5505,7 +5409,7 @@
         <v>969379.5628000005</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>27.5</v>
@@ -5544,7 +5448,7 @@
         <v>969379.5628000005</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>27.6</v>
@@ -5583,7 +5487,7 @@
         <v>969379.5628000005</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>27.6</v>
@@ -5622,7 +5526,7 @@
         <v>685666.6535000005</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>27.6</v>
@@ -5661,7 +5565,7 @@
         <v>665352.4107000005</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>27.5</v>
@@ -5700,7 +5604,7 @@
         <v>616818.2958000004</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>27.4</v>
@@ -5739,7 +5643,7 @@
         <v>876432.6436000004</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>27.3</v>
@@ -5778,7 +5682,7 @@
         <v>876432.6436000004</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>27.6</v>
@@ -5817,11 +5721,9 @@
         <v>876444.6436000004</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5856,7 +5758,7 @@
         <v>943921.805470504</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>27.7</v>
@@ -5895,7 +5797,7 @@
         <v>908360.697470504</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>27.8</v>
@@ -5934,7 +5836,7 @@
         <v>908372.697470504</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>27.7</v>
@@ -5973,7 +5875,7 @@
         <v>883585.3896712234</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>27.8</v>
@@ -6012,11 +5914,9 @@
         <v>950014.6120712233</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6051,7 +5951,7 @@
         <v>950014.6120712233</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>27.7</v>
@@ -6090,11 +5990,9 @@
         <v>961391.5129712233</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -6203,11 +6101,9 @@
         <v>961391.5129712233</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -6242,11 +6138,9 @@
         <v>961246.1574712234</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6281,11 +6175,9 @@
         <v>961246.1574712234</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6320,11 +6212,9 @@
         <v>953101.6601712233</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6359,11 +6249,9 @@
         <v>953112.6601712233</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6398,11 +6286,9 @@
         <v>953112.6601712233</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6437,11 +6323,9 @@
         <v>940522.7321712234</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6476,11 +6360,9 @@
         <v>940532.7321712234</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6515,11 +6397,9 @@
         <v>940532.7321712234</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6702,11 +6582,9 @@
         <v>1046171.535571223</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6815,11 +6693,9 @@
         <v>1003242.665571223</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6854,11 +6730,9 @@
         <v>1003242.665571223</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6893,11 +6767,9 @@
         <v>1003242.665571223</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6932,11 +6804,9 @@
         <v>981786.6149712234</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6971,11 +6841,9 @@
         <v>981797.6149712234</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -7010,11 +6878,9 @@
         <v>942049.2086712234</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -7049,11 +6915,9 @@
         <v>1026097.503071223</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -7088,11 +6952,9 @@
         <v>1026097.503071223</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -7164,11 +7026,9 @@
         <v>1061191.375371223</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -7203,11 +7063,9 @@
         <v>1064156.530543885</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -7242,11 +7100,9 @@
         <v>1064156.530543885</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7281,11 +7137,9 @@
         <v>1064156.530543885</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7542,11 +7396,9 @@
         <v>934785.1754438851</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>28.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7618,11 +7470,9 @@
         <v>934796.1754438851</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7731,11 +7581,9 @@
         <v>908033.9934438851</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7770,11 +7618,9 @@
         <v>922333.9934438851</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7883,11 +7729,9 @@
         <v>977201.8231438851</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7922,16 +7766,18 @@
         <v>989455.7453438852</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
       <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -7957,15 +7803,15 @@
         <v>966175.9888438851</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J198" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7994,17 +7840,13 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="J199" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -8035,17 +7877,13 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J200" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -8076,14 +7914,10 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J201" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,9 +7954,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8159,9 +7991,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8195,12 +8025,10 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,12 +8062,10 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,12 +8099,10 @@
         <v>1083247.703043885</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,12 +8136,10 @@
         <v>948126.2065438851</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,12 +8173,10 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,12 +8210,10 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,12 +8247,10 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,19 +8284,17 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>1.005600706713781</v>
+        <v>1</v>
       </c>
       <c r="M211" t="inlineStr"/>
     </row>
@@ -8507,11 +8321,15 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +8358,15 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +8395,15 @@
         <v>855771.2734438848</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +8432,15 @@
         <v>668514.7611438849</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8639,15 +8469,15 @@
         <v>715484.5642438849</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="J216" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8679,12 +8509,10 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -8715,15 +8543,13 @@
         <v>775787.6939438848</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -8754,11 +8580,15 @@
         <v>776297.6939438848</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8787,11 +8617,15 @@
         <v>987475.2825438848</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8820,11 +8654,15 @@
         <v>970043.6797438848</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8853,11 +8691,15 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8886,11 +8728,15 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8765,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8952,11 +8802,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +8839,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9018,11 +8876,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +8913,15 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9084,11 +8950,15 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9121,7 +8991,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9150,11 +9024,15 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9183,11 +9061,15 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9216,11 +9098,15 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9249,11 +9135,15 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9282,11 +9172,15 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9315,11 +9209,15 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9348,11 +9246,15 @@
         <v>1315513.144879501</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9381,11 +9283,15 @@
         <v>1773559.96186211</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9414,11 +9320,15 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9447,11 +9357,15 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9480,11 +9394,15 @@
         <v>1118756.73176211</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9431,15 @@
         <v>1122397.22476211</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9546,11 +9468,15 @@
         <v>1122387.22476211</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9579,11 +9505,15 @@
         <v>1092066.05866211</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9612,14 +9542,16 @@
         <v>1345013.376162109</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9645,7 +9577,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9678,7 +9610,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9711,7 +9643,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9744,7 +9676,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9810,7 +9742,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9909,7 +9841,7 @@
         <v>1366580.054362109</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9942,7 +9874,7 @@
         <v>1312251.467762109</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9975,7 +9907,7 @@
         <v>1335147.890562109</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10008,7 +9940,7 @@
         <v>1335147.890562109</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10041,7 +9973,7 @@
         <v>1335147.890562109</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10074,7 +10006,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10107,7 +10039,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10140,7 +10072,7 @@
         <v>1355167.890562109</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10173,7 +10105,7 @@
         <v>1353020.742862109</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10206,7 +10138,7 @@
         <v>1115049.425362109</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10239,7 +10171,7 @@
         <v>1118480.425362109</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10272,7 +10204,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10305,7 +10237,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10338,7 +10270,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10371,7 +10303,7 @@
         <v>1112191.087762109</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10404,7 +10336,7 @@
         <v>1112191.087762109</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10437,7 +10369,7 @@
         <v>1150724.809362109</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10470,7 +10402,7 @@
         <v>1150724.809362109</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10602,7 +10534,7 @@
         <v>1165637.819762109</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10701,7 +10633,7 @@
         <v>1187620.740062109</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10734,7 +10666,7 @@
         <v>1238223.37816211</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10767,7 +10699,7 @@
         <v>1238223.37816211</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10800,7 +10732,7 @@
         <v>1238223.37816211</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10833,7 +10765,7 @@
         <v>1234423.89186211</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10866,7 +10798,7 @@
         <v>1228430.64276211</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10899,7 +10831,7 @@
         <v>799299.9879621096</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10932,7 +10864,7 @@
         <v>854231.0981621096</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10965,7 +10897,7 @@
         <v>849750.0596621096</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10998,7 +10930,7 @@
         <v>867220.0596621096</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11031,7 +10963,7 @@
         <v>862299.1625621096</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11064,7 +10996,7 @@
         <v>863733.4685621096</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11097,7 +11029,7 @@
         <v>1152044.56786211</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11328,7 +11260,7 @@
         <v>1256673.46766211</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11361,7 +11293,7 @@
         <v>1246188.46766211</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11394,7 +11326,7 @@
         <v>1246198.46766211</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12351,7 +12283,7 @@
         <v>1129065.31126211</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12483,7 +12415,7 @@
         <v>1129065.31126211</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12549,7 +12481,7 @@
         <v>1149977.31126211</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12681,7 +12613,7 @@
         <v>1125027.267137634</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12813,7 +12745,7 @@
         <v>1125027.267137634</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12846,7 +12778,7 @@
         <v>1125027.267137634</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12879,7 +12811,7 @@
         <v>1212160.526639376</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12912,7 +12844,7 @@
         <v>1203460.526639376</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12978,7 +12910,7 @@
         <v>1203460.526639376</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13011,7 +12943,7 @@
         <v>1203460.526639376</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13044,7 +12976,7 @@
         <v>1177305.323539376</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13077,7 +13009,7 @@
         <v>1177305.323539376</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13110,7 +13042,7 @@
         <v>1067476.384839376</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13143,7 +13075,7 @@
         <v>1198729.381239376</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13176,7 +13108,7 @@
         <v>1233705.213239376</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13242,7 +13174,7 @@
         <v>1113954.301539376</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13308,7 +13240,7 @@
         <v>1123014.301539376</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13341,7 +13273,7 @@
         <v>1122188.622939376</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13440,7 +13372,7 @@
         <v>1092058.096139376</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13506,7 +13438,7 @@
         <v>1044796.487239376</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13539,7 +13471,7 @@
         <v>1021596.487239376</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13572,7 +13504,7 @@
         <v>849070.2610393763</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13605,7 +13537,7 @@
         <v>849070.2610393763</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13638,7 +13570,7 @@
         <v>849070.2610393763</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13671,7 +13603,7 @@
         <v>887555.1229393763</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13704,7 +13636,7 @@
         <v>880862.7691393762</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13737,7 +13669,7 @@
         <v>864453.2186393762</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13770,7 +13702,7 @@
         <v>871583.0609393762</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13803,7 +13735,7 @@
         <v>977181.4304611153</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13836,7 +13768,7 @@
         <v>977181.4304611153</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13869,7 +13801,7 @@
         <v>977181.4304611153</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13902,7 +13834,7 @@
         <v>868692.4850611154</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13935,7 +13867,7 @@
         <v>868703.4850611154</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13968,7 +13900,7 @@
         <v>546972.1196611153</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14001,7 +13933,7 @@
         <v>546972.1196611153</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14562,14 +14494,10 @@
         <v>626116.2408611153</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J395" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
@@ -14602,14 +14530,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14641,14 +14563,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15238,14 +15154,10 @@
         <v>506331.5108611154</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J415" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
@@ -15275,19 +15187,15 @@
         <v>506331.5108611154</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>27.3</v>
       </c>
       <c r="J416" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>27.3</v>
+      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15316,13 +15224,13 @@
         <v>506331.5108611154</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>27.3</v>
       </c>
       <c r="J417" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15357,13 +15265,13 @@
         <v>506341.5108611154</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>27.3</v>
       </c>
       <c r="J418" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15376,6 +15284,6 @@
       <c r="M418" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-18 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -796,9 +796,11 @@
         <v>437612.0463</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -911,11 +913,9 @@
         <v>435798.1503</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -989,11 +989,9 @@
         <v>441798.1503</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1028,11 +1026,9 @@
         <v>441798.1503</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1067,11 +1063,9 @@
         <v>441798.1503</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1217,11 +1211,9 @@
         <v>567742.1036</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1256,11 +1248,9 @@
         <v>590526.5532000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1332,11 +1322,9 @@
         <v>579445.1555000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1371,11 +1359,9 @@
         <v>583002.1954000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1595,18 +1581,16 @@
         <v>1059146.5086</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1632,15 +1616,11 @@
         <v>1046541.2307</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1673,11 +1653,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1710,11 +1686,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1747,11 +1719,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1784,11 +1752,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1821,11 +1785,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1854,15 +1814,11 @@
         <v>1056764.6574</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1891,15 +1847,11 @@
         <v>1056764.6574</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1928,15 +1880,11 @@
         <v>1056872.6574</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1965,15 +1913,11 @@
         <v>1056872.6574</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2002,15 +1946,11 @@
         <v>1056872.6574</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2039,15 +1979,11 @@
         <v>1020774.6574</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2076,15 +2012,11 @@
         <v>1020882.6574</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2113,15 +2045,11 @@
         <v>1019383.1919</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2150,15 +2078,11 @@
         <v>1143656.566</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2187,15 +2111,11 @@
         <v>1131137.0366</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2224,15 +2144,11 @@
         <v>1122704.353</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2265,11 +2181,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2302,11 +2214,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2335,15 +2243,11 @@
         <v>1043922.7751</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2372,15 +2276,11 @@
         <v>1066465.9036</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2413,11 +2313,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2450,11 +2346,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2379,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2524,11 +2412,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2561,11 +2445,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2598,11 +2478,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2635,11 +2511,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2672,11 +2544,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2709,11 +2577,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2610,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2643,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2820,11 +2676,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2857,11 +2709,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +2742,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +2775,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2968,11 +2808,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3005,11 +2841,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3042,11 +2874,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3079,11 +2907,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3116,11 +2940,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +2973,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3006,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3227,11 +3039,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3264,11 +3072,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3301,11 +3105,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3338,11 +3138,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3171,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3204,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3449,11 +3237,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3486,11 +3270,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3303,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3560,11 +3336,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3597,11 +3369,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3634,11 +3402,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3671,11 +3435,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3708,11 +3468,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3745,11 +3501,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +3534,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3819,11 +3567,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3856,11 +3600,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3893,11 +3633,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3930,11 +3666,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +3699,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4004,11 +3732,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4041,11 +3765,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +3798,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +3831,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4152,11 +3864,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4189,11 +3897,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +3930,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4263,11 +3963,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +3996,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4337,11 +4029,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +4062,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4095,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4128,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4485,11 +4161,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4194,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4559,11 +4227,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4260,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4629,17 +4289,11 @@
         <v>887626.8975000004</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4668,17 +4322,11 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4707,17 +4355,11 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4746,17 +4388,11 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4785,17 +4421,11 @@
         <v>889141.8975000004</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4824,17 +4454,11 @@
         <v>890291.2195000005</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4863,17 +4487,11 @@
         <v>890291.2195000005</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4902,17 +4520,11 @@
         <v>890291.2195000005</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4941,17 +4553,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4980,17 +4586,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5019,17 +4619,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5058,17 +4652,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5097,17 +4685,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5136,17 +4718,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5175,17 +4751,11 @@
         <v>890091.2195000005</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5214,17 +4784,11 @@
         <v>883835.2068000005</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5253,17 +4817,11 @@
         <v>969500.4518000005</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5292,17 +4850,11 @@
         <v>969500.4518000005</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5331,17 +4883,11 @@
         <v>969500.4518000005</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5370,17 +4916,11 @@
         <v>966619.4709000005</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5409,17 +4949,11 @@
         <v>969379.5628000005</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5448,17 +4982,11 @@
         <v>969379.5628000005</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5487,17 +5015,11 @@
         <v>969379.5628000005</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5526,17 +5048,11 @@
         <v>685666.6535000005</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5565,17 +5081,11 @@
         <v>665352.4107000005</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>27.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5604,17 +5114,11 @@
         <v>616818.2958000004</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>27.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5643,17 +5147,11 @@
         <v>876432.6436000004</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5682,17 +5180,11 @@
         <v>876432.6436000004</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5725,11 +5217,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5758,17 +5246,11 @@
         <v>943921.805470504</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5797,17 +5279,11 @@
         <v>908360.697470504</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5836,17 +5312,11 @@
         <v>908372.697470504</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5875,17 +5345,11 @@
         <v>883585.3896712234</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>27.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5918,11 +5382,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5951,17 +5411,11 @@
         <v>950014.6120712233</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>27.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +5448,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +5481,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +5514,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +5547,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +5580,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6179,11 +5613,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6216,11 +5646,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6253,11 +5679,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6290,11 +5712,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6327,11 +5745,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6364,11 +5778,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6401,11 +5811,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6438,11 +5844,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6475,11 +5877,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +5910,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6549,11 +5943,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6586,11 +5976,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6623,11 +6009,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6042,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6697,11 +6075,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6734,11 +6108,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6141,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6808,11 +6174,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6845,11 +6207,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6882,11 +6240,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6273,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6956,11 +6306,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6993,11 +6339,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +6372,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +6405,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +6438,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +6471,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7178,11 +6504,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +6537,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +6570,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7289,11 +6603,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +6636,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7363,11 +6669,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7400,11 +6702,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7437,11 +6735,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +6768,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7511,11 +6801,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7548,11 +6834,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +6867,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +6900,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7659,11 +6933,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +6966,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +6999,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7770,11 +7032,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7807,11 +7065,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7840,15 +7094,11 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7877,15 +7127,11 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7914,15 +7160,11 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7951,15 +7193,11 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7988,15 +7226,11 @@
         <v>1039815.837543885</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8025,15 +7259,11 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8062,15 +7292,11 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8099,15 +7325,11 @@
         <v>1083247.703043885</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8136,15 +7358,11 @@
         <v>948126.2065438851</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8173,15 +7391,11 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8210,15 +7424,11 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8247,15 +7457,11 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8284,15 +7490,11 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8321,15 +7523,11 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8358,15 +7556,11 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8395,15 +7589,11 @@
         <v>855771.2734438848</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8432,15 +7622,11 @@
         <v>668514.7611438849</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +7659,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8506,15 +7688,11 @@
         <v>715534.7396438848</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8543,15 +7721,11 @@
         <v>775787.6939438848</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8580,15 +7754,11 @@
         <v>776297.6939438848</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8617,15 +7787,11 @@
         <v>987475.2825438848</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8654,15 +7820,11 @@
         <v>970043.6797438848</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8691,15 +7853,11 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8728,15 +7886,11 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8765,15 +7919,11 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8802,15 +7952,11 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8839,15 +7985,11 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8876,15 +8018,11 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8913,15 +8051,11 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8950,15 +8084,11 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8987,15 +8117,11 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9024,15 +8150,11 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9061,15 +8183,11 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9098,15 +8216,11 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9135,15 +8249,11 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9176,11 +8286,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9213,11 +8319,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +8352,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9287,11 +8385,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9324,11 +8418,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +8451,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9398,11 +8484,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9435,11 +8517,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9472,11 +8550,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9509,11 +8583,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9542,16 +8612,14 @@
         <v>1345013.376162109</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9610,7 +8678,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9643,7 +8711,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9676,7 +8744,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9742,7 +8810,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9841,7 +8909,7 @@
         <v>1366580.054362109</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9874,7 +8942,7 @@
         <v>1312251.467762109</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9907,7 +8975,7 @@
         <v>1335147.890562109</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9940,7 +9008,7 @@
         <v>1335147.890562109</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9973,7 +9041,7 @@
         <v>1335147.890562109</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10006,7 +9074,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10039,7 +9107,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10072,7 +9140,7 @@
         <v>1355167.890562109</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10105,7 +9173,7 @@
         <v>1353020.742862109</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10138,7 +9206,7 @@
         <v>1115049.425362109</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10633,7 +9701,7 @@
         <v>1187620.740062109</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10666,7 +9734,7 @@
         <v>1238223.37816211</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10699,7 +9767,7 @@
         <v>1238223.37816211</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10732,7 +9800,7 @@
         <v>1238223.37816211</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10765,7 +9833,7 @@
         <v>1234423.89186211</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10798,7 +9866,7 @@
         <v>1228430.64276211</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10831,7 +9899,7 @@
         <v>799299.9879621096</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10864,7 +9932,7 @@
         <v>854231.0981621096</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10897,7 +9965,7 @@
         <v>849750.0596621096</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10930,7 +9998,7 @@
         <v>867220.0596621096</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10963,7 +10031,7 @@
         <v>862299.1625621096</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10996,7 +10064,7 @@
         <v>863733.4685621096</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11029,7 +10097,7 @@
         <v>1152044.56786211</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11260,7 +10328,7 @@
         <v>1256673.46766211</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11326,7 +10394,7 @@
         <v>1246198.46766211</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -15187,14 +14255,10 @@
         <v>506331.5108611154</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J416" t="n">
-        <v>27.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
@@ -15224,19 +14288,11 @@
         <v>506331.5108611154</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J417" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15265,25 +14321,17 @@
         <v>506341.5108611154</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J418" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
       <c r="M418" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-18 BackTest LOOM.xlsx
@@ -913,9 +913,11 @@
         <v>435798.1503</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -989,9 +991,11 @@
         <v>441798.1503</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1026,9 +1030,11 @@
         <v>441798.1503</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1063,9 +1069,11 @@
         <v>441798.1503</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1100,9 +1108,11 @@
         <v>441798.1503</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1137,9 +1147,11 @@
         <v>440428.1503</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27.9</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1174,9 +1186,11 @@
         <v>440428.1503</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1211,9 +1225,11 @@
         <v>567742.1036</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27.7</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1581,16 +1597,18 @@
         <v>1059146.5086</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1616,11 +1634,15 @@
         <v>1046541.2307</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1653,7 +1675,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1686,7 +1712,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1719,7 +1749,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1752,7 +1786,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,7 +1823,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1814,11 +1856,15 @@
         <v>1056764.6574</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1847,11 +1893,15 @@
         <v>1056764.6574</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1880,11 +1930,15 @@
         <v>1056872.6574</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1913,11 +1967,15 @@
         <v>1056872.6574</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1946,11 +2004,15 @@
         <v>1056872.6574</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1979,11 +2041,15 @@
         <v>1020774.6574</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2012,11 +2078,15 @@
         <v>1020882.6574</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2045,11 +2115,15 @@
         <v>1019383.1919</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2078,11 +2152,15 @@
         <v>1143656.566</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2111,11 +2189,15 @@
         <v>1131137.0366</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2144,11 +2226,15 @@
         <v>1122704.353</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2181,7 +2267,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2214,7 +2304,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2243,11 +2337,15 @@
         <v>1043922.7751</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2276,11 +2374,15 @@
         <v>1066465.9036</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2313,7 +2415,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2346,7 +2452,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2379,7 +2489,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2412,7 +2526,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2445,7 +2563,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2478,7 +2600,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2511,7 +2637,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2544,7 +2674,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2577,7 +2711,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2610,7 +2748,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2643,7 +2785,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2676,7 +2822,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2709,7 +2859,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2742,7 +2896,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2775,7 +2933,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2808,7 +2970,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2841,7 +3007,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2874,7 +3044,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2907,7 +3081,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2940,7 +3118,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2973,7 +3155,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3006,7 +3192,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3039,7 +3229,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3072,7 +3266,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3105,7 +3303,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3138,7 +3340,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3171,7 +3377,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3204,7 +3414,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3237,7 +3451,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3270,7 +3488,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3303,7 +3525,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3336,7 +3562,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3369,7 +3599,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3402,7 +3636,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3435,7 +3673,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3710,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3501,7 +3747,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3534,7 +3784,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3567,7 +3821,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3600,7 +3858,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3633,7 +3895,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3666,7 +3932,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3699,7 +3969,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3732,7 +4006,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3765,7 +4043,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3798,7 +4080,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3831,7 +4117,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3864,7 +4154,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3897,7 +4191,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3930,7 +4228,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3963,7 +4265,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3996,7 +4302,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4029,7 +4339,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4062,7 +4376,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4095,7 +4413,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4128,7 +4450,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4161,7 +4487,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4194,7 +4524,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4227,7 +4561,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4260,7 +4598,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4293,7 +4635,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4326,7 +4672,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4359,7 +4709,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4392,7 +4746,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4425,7 +4783,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4458,7 +4820,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4491,7 +4857,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4524,7 +4894,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4557,7 +4931,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4590,7 +4968,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +5005,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4656,7 +5042,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4689,7 +5079,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4722,7 +5116,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4755,7 +5153,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4788,7 +5190,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4821,7 +5227,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4854,7 +5264,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4887,7 +5301,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4920,7 +5338,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4953,7 +5375,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4986,7 +5412,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5019,7 +5449,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5052,7 +5486,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5085,7 +5523,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5118,7 +5560,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5151,7 +5597,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5184,7 +5634,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5217,7 +5671,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5250,7 +5708,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5283,7 +5745,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5316,7 +5782,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5349,7 +5819,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5382,7 +5856,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5415,7 +5893,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5448,7 +5930,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5481,7 +5967,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5514,7 +6004,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5547,7 +6041,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5580,7 +6078,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5613,7 +6115,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5646,7 +6152,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5679,7 +6189,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5712,7 +6226,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5745,7 +6263,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +6300,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5811,7 +6337,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5844,7 +6374,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5877,7 +6411,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5910,7 +6448,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5943,7 +6485,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5976,7 +6522,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6009,7 +6559,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6042,7 +6596,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6075,7 +6633,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6108,7 +6670,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6141,7 +6707,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6174,7 +6744,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6207,7 +6781,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6240,7 +6818,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6273,7 +6855,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6306,7 +6892,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6339,7 +6929,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6372,7 +6966,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6405,7 +7003,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6438,7 +7040,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6471,7 +7077,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6504,7 +7114,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6537,7 +7151,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6570,7 +7188,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6603,7 +7225,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6636,7 +7262,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6669,7 +7299,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6702,7 +7336,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6735,7 +7373,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6768,7 +7410,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6801,7 +7447,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6834,7 +7484,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6867,7 +7521,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6900,7 +7558,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7595,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6966,7 +7632,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6999,7 +7669,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7032,7 +7706,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7065,7 +7743,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7094,11 +7776,15 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7127,11 +7813,15 @@
         <v>979868.8492438851</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7160,11 +7850,15 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7193,11 +7887,15 @@
         <v>945444.7247438851</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7226,11 +7924,15 @@
         <v>1039815.837543885</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7259,11 +7961,15 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7292,11 +7998,15 @@
         <v>1018713.425943885</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7325,11 +8035,15 @@
         <v>1083247.703043885</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7358,11 +8072,15 @@
         <v>948126.2065438851</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +8109,15 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7424,11 +8146,15 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +8183,15 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +8220,15 @@
         <v>1060665.223943885</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7523,11 +8257,15 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7556,11 +8294,15 @@
         <v>1050230.826943885</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7589,11 +8331,15 @@
         <v>855771.2734438848</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +8368,15 @@
         <v>668514.7611438849</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7659,7 +8409,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +8442,15 @@
         <v>715534.7396438848</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7721,11 +8479,15 @@
         <v>775787.6939438848</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7754,11 +8516,15 @@
         <v>776297.6939438848</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7787,11 +8553,15 @@
         <v>987475.2825438848</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +8590,15 @@
         <v>970043.6797438848</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +8627,15 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7886,11 +8664,15 @@
         <v>970053.6797438848</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +8701,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +8738,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7985,11 +8775,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8018,11 +8812,15 @@
         <v>874352.6797438848</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8051,11 +8849,15 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8084,11 +8886,15 @@
         <v>966627.1721438848</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +8923,15 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8150,11 +8960,15 @@
         <v>1070397.573043885</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8183,11 +8997,15 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +9034,15 @@
         <v>1133346.366143885</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +9071,15 @@
         <v>1294621.080279501</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8286,7 +9112,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8319,7 +9149,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8352,7 +9186,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8385,7 +9223,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +9256,16 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
@@ -8447,7 +9291,7 @@
         <v>1490060.44336211</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8480,7 +9324,7 @@
         <v>1118756.73176211</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8513,7 +9357,7 @@
         <v>1122397.22476211</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8546,7 +9390,7 @@
         <v>1122387.22476211</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8579,7 +9423,7 @@
         <v>1092066.05866211</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8612,7 +9456,7 @@
         <v>1345013.376162109</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8645,7 +9489,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8678,7 +9522,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8711,7 +9555,7 @@
         <v>1343562.376162109</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8744,7 +9588,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8777,7 +9621,7 @@
         <v>1339957.57456211</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8843,7 +9687,7 @@
         <v>1337587.72576211</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8876,7 +9720,7 @@
         <v>1366580.054362109</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9074,7 +9918,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9107,7 +9951,7 @@
         <v>1355157.890562109</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9140,7 +9984,7 @@
         <v>1355167.890562109</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9173,7 +10017,7 @@
         <v>1353020.742862109</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9206,7 +10050,7 @@
         <v>1115049.425362109</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9272,7 +10116,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9305,7 +10149,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9338,7 +10182,7 @@
         <v>1081771.537562109</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9371,7 +10215,7 @@
         <v>1112191.087762109</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
